--- a/test/バーコードテストデータ.xlsx
+++ b/test/バーコードテストデータ.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Libraries\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\pokayoke\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ｵﾘｴﾝﾄ" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="ｸﾎﾞﾀKIC_EGR品番ほか" sheetId="5" r:id="rId5"/>
     <sheet name="ｽﾘｰﾌﾞYR" sheetId="6" r:id="rId6"/>
     <sheet name="6ﾊﾞｲﾄ目" sheetId="7" r:id="rId7"/>
+    <sheet name="ﾃｨｴﾗM0600" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>32A35-06401</t>
     <phoneticPr fontId="1"/>
@@ -174,12 +175,150 @@
     <t>Y6R243S20083782</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>v23.10.20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>62J1712122</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>62J1712122A001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>62J171-21520</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>62J1712152A001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3C311-82741-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3C31182742A000005</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>T4148-56142</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4桁からの照合</t>
+    <rPh sb="1" eb="2">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾃｨｴﾗ社外品番照合</t>
+    <rPh sb="4" eb="6">
+      <t>シャガイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6桁からの照合</t>
+    <rPh sb="1" eb="2">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v23.10.06</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スリーブ品番</t>
+    <rPh sb="4" eb="6">
+      <t>ヒンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YR品番</t>
+    <rPh sb="2" eb="4">
+      <t>ヒンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堺 素地品番</t>
+    <rPh sb="0" eb="1">
+      <t>サカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒンバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TD35033453</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3C13162251A000005</t>
+  </si>
+  <si>
+    <t>129J20-59580A</t>
+  </si>
+  <si>
+    <t>T018012071</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切断品番照合エラーテスト</t>
+    <rPh sb="0" eb="2">
+      <t>セツダン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,13 +364,51 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -251,7 +428,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -270,6 +447,18 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -290,54 +479,6 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4789"/>
   <ax:ocxPr ax:name="_cy" ax:value="1588"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
@@ -352,295 +493,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="7408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1402"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="7567"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1402"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="7567"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1402"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="7408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1402"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -656,7 +509,535 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3545"/>
   <ax:ocxPr ax:name="_cy" ax:value="3069"/>
@@ -666,13 +1047,45 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712152A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J171-21520"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3545"/>
   <ax:ocxPr ax:name="_cy" ax:value="3069"/>
@@ -682,125 +1095,45 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
+  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4789"/>
   <ax:ocxPr ax:name="_cy" ax:value="1588"/>
@@ -816,30 +1149,14 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
@@ -850,15 +1167,15 @@
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1547,9 +1864,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1602,9 +1919,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1656,10 +1973,10 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1711,10 +2028,10 @@
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1772,9 +2089,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1827,9 +2144,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1881,10 +2198,10 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>419100</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1936,10 +2253,10 @@
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>152400</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>361950</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2217,9 +2534,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2272,9 +2589,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2332,9 +2649,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2387,9 +2704,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2442,9 +2759,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2497,9 +2814,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2552,9 +2869,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2607,9 +2924,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2667,9 +2984,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2722,9 +3039,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2777,9 +3094,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2832,9 +3149,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2842,6 +3159,451 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s7172"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8193" name="BarCodeCtrl1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8193"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8194" name="BarCodeCtrl2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8194"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8195" name="BarCodeCtrl3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8195"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8196" name="BarCodeCtrl6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8196"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8197" name="BarCodeCtrl4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8197"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8198" name="BarCodeCtrl5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8198"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8200" name="BarCodeCtrl7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8200"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8201" name="BarCodeCtrl8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8201"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3145,7 +3907,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -3175,8 +3937,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3195,12 +4082,274 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="24">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="24">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="24">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2">
+        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="24">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="24">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
@@ -3220,38 +4369,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2"/>
+        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3">
+        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -3270,13 +4394,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4"/>
+        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -3295,235 +4419,21 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6"/>
+        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:F27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="2:6" ht="24">
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="24">
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="24">
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3532,7 +4442,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="24">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -3540,7 +4450,7 @@
     </row>
     <row r="12" spans="2:6" ht="24">
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="24">
@@ -3562,7 +4472,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5">
+        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -3582,12 +4492,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5"/>
+        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4">
+        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
@@ -3607,12 +4517,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4"/>
+        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2">
+        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -3632,12 +4542,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2"/>
+        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1">
+        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
@@ -3657,20 +4567,20 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:F14"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3678,27 +4588,47 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="24">
+    <row r="1" spans="2:13" ht="24">
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="24">
+    <row r="10" spans="2:13">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="24">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="24">
+    <row r="13" spans="2:13" ht="24">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75">
+    <row r="14" spans="2:13" ht="18.75">
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3710,8 +4640,8 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3730,13 +4660,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3755,13 +4685,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2"/>
+        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -3780,13 +4710,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4"/>
+        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -3805,20 +4735,70 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5"/>
+        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:M23"/>
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3826,46 +4806,76 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="24">
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="5">
-        <v>45203</v>
+    <row r="10" spans="1:13">
+      <c r="B10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="24">
+    <row r="12" spans="1:13" ht="24">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
+    <row r="13" spans="1:13" ht="24">
+      <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="18.75">
+    <row r="14" spans="1:13" ht="18.75">
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="22" spans="2:16">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="24">
       <c r="B23" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -3877,8 +4887,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId5">
+        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -3888,6 +4973,489 @@
               </from>
               <to>
                 <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="L12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="16:16" ht="24">
+      <c r="P23" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="24">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="21">
+      <c r="Q23" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="24">
+      <c r="Q27" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>20</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
@@ -3897,22 +5465,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6"/>
+        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
+        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>638175</xdr:colOff>
                 <xdr:row>7</xdr:row>
                 <xdr:rowOff>104775</xdr:rowOff>
@@ -3922,63 +5490,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3"/>
+        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId13">
+        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3997,13 +5515,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2"/>
+        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId15">
+        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4022,419 +5540,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="24">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="5">
-        <v>45203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="24">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="L1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="5">
-        <v>45203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="L12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/test/バーコードテストデータ.xlsx
+++ b/test/バーコードテストデータ.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>32A35-06401</t>
     <phoneticPr fontId="1"/>
@@ -185,14 +185,6 @@
   </si>
   <si>
     <t>62J1712122A001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>62J171-21520</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>62J1712152A001</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -311,6 +303,37 @@
     <rPh sb="4" eb="6">
       <t>ショウゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>62J171-21530</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TB1TB62J1712153A001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ﾃｨｴﾗ社外品番6桁目照合</t>
+    <rPh sb="4" eb="6">
+      <t>シャガイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>62J1712153A001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -479,8 +502,56 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
@@ -493,10 +564,298 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -509,7 +868,199 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -519,13 +1070,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -535,29 +1102,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -567,98 +1118,18 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
+  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -669,474 +1140,10 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712152A001"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J171-21520"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
@@ -1149,14 +1156,30 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
@@ -1167,15 +1190,15 @@
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -3937,8 +3960,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -3957,13 +4105,154 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6"/>
+        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="24">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="24">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="24">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5">
+        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -3982,12 +4271,281 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5"/>
+        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4">
+        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="24">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="24">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="24">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="24">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4007,399 +4565,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4"/>
+        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="2:6" ht="24">
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="24">
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="24">
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="24">
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="24">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5">
+        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
@@ -4419,20 +4590,20 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5"/>
+        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:F14"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4440,27 +4611,47 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="24">
+    <row r="1" spans="2:13" ht="24">
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="24">
+    <row r="10" spans="2:13">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="24">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="24">
+    <row r="13" spans="2:13" ht="24">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75">
+    <row r="14" spans="2:13" ht="18.75">
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4472,8 +4663,58 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4482,23 +4723,23 @@
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5"/>
+        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4507,23 +4748,270 @@
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4"/>
+        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="24">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4542,13 +5030,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2"/>
+        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4567,20 +5055,20 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:M23"/>
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4588,47 +5076,59 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="24">
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:13">
+    <row r="10" spans="1:13">
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="24">
+    <row r="12" spans="1:13" ht="24">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="L12" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="13" spans="2:13" ht="24">
+    <row r="13" spans="1:13" ht="24">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="18.75">
+    <row r="14" spans="1:13" ht="18.75">
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>19</v>
+    <row r="23" spans="16:16" ht="24">
+      <c r="P23" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4640,8 +5140,239 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId5">
+        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="24">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="21">
+      <c r="Q23" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="24">
+      <c r="Q27" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4660,13 +5391,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId7">
+        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4685,72 +5416,72 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2"/>
+        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId9">
+        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4"/>
+        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId11">
+        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5"/>
+        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId13">
+        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
@@ -4760,22 +5491,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3"/>
+        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId15">
+        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
@@ -4785,119 +5516,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6"/>
+        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:P23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="24">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="24">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>13</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
+                <xdr:col>14</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
@@ -4907,446 +5541,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:P23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="24">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="L1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="L12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="16:16" ht="24">
-      <c r="P23" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:Q27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="5" max="5" width="4.625" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="4.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="24">
-      <c r="A1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="B10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="N10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="24">
-      <c r="A12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17">
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="21">
-      <c r="Q23" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="24">
-      <c r="Q27" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="J10:L10"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId5">
+        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
@@ -5365,182 +5566,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1"/>
+        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/test/バーコードテストデータ.xlsx
+++ b/test/バーコードテストデータ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ｵﾘｴﾝﾄ" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ｽﾘｰﾌﾞYR" sheetId="6" r:id="rId6"/>
     <sheet name="6ﾊﾞｲﾄ目" sheetId="7" r:id="rId7"/>
     <sheet name="ﾃｨｴﾗM0600" sheetId="8" r:id="rId8"/>
+    <sheet name="ｸﾎﾞﾀM0600" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>32A35-06401</t>
     <phoneticPr fontId="1"/>
@@ -334,6 +335,50 @@
   </si>
   <si>
     <t>62J1712153A001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RC791-92471</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23RC7949247114535793001                0000005     0000000            01010     20231026            </t>
+  </si>
+  <si>
+    <t>RC79492471</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｸﾎﾞﾀ社外品番照合</t>
+    <rPh sb="4" eb="6">
+      <t>シャガイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒンバン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RD551-64261</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">84RD5586426170240148001                0000008     0000000                      20231026            </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RD55864261</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v23.10.23バグ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -451,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,6 +527,18 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -502,56 +559,8 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
@@ -564,298 +573,10 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -868,12 +589,316 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -884,33 +909,65 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -918,10 +975,58 @@
 
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -932,55 +1037,103 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
+  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3545"/>
   <ax:ocxPr ax:name="_cy" ax:value="3069"/>
@@ -990,13 +1143,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3545"/>
   <ax:ocxPr ax:name="_cy" ax:value="3069"/>
@@ -1006,13 +1175,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="84RD5586426170240148001                0000008     0000000                      20231026            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3545"/>
   <ax:ocxPr ax:name="_cy" ax:value="3069"/>
@@ -1022,29 +1207,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
+  <ax:ocxPr ax:name="Value" ax:value="RD551-64261"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RC7949247114535793001                0000005     0000000            01010     20231026            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3545"/>
   <ax:ocxPr ax:name="_cy" ax:value="3069"/>
@@ -1054,13 +1239,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
+  <ax:ocxPr ax:name="Value" ax:value="RC791-92471"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -1070,80 +1271,16 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
@@ -1156,30 +1293,14 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
@@ -1190,15 +1311,15 @@
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -3664,6 +3785,231 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="BarCodeCtrl1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9218" name="BarCodeCtrl2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9218"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9219" name="BarCodeCtrl3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9219"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>638175</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9220" name="BarCodeCtrl6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9220"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3930,8 +4276,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3960,8 +4306,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -3980,12 +4451,274 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="24">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="24">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="24">
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2">
+        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>361950</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="24">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="24">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
@@ -4005,38 +4738,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2"/>
+        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3">
+        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4055,13 +4763,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4"/>
+        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4080,235 +4788,21 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6"/>
+        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="2:6" ht="24">
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="24">
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="24">
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -4317,7 +4811,7 @@
   <sheetData>
     <row r="1" spans="2:6" ht="24">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -4325,7 +4819,7 @@
     </row>
     <row r="12" spans="2:6" ht="24">
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="24">
@@ -4347,7 +4841,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5">
+        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4367,12 +4861,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5"/>
+        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4">
+        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
@@ -4392,12 +4886,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4"/>
+        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2">
+        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4417,12 +4911,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2"/>
+        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1">
+        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
@@ -4442,20 +4936,20 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:F14"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4463,27 +4957,47 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="24">
+    <row r="1" spans="2:13" ht="24">
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="24">
+    <row r="10" spans="2:13">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="24">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="24">
+    <row r="13" spans="2:13" ht="24">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75">
+    <row r="14" spans="2:13" ht="18.75">
       <c r="B14" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4495,8 +5009,255 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="24">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4515,13 +5276,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4540,131 +5301,38 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2"/>
+        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4"/>
+        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="24">
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="24">
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId5">
+        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -4683,13 +5351,193 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6"/>
+        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
+        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="L12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="16:16" ht="24">
+      <c r="P23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -4708,49 +5556,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3"/>
+        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId9">
+        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -4758,13 +5581,294 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4"/>
+        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:Q27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="24">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="21">
+      <c r="Q23" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="24">
+      <c r="Q27" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId13">
+        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4783,13 +5887,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2"/>
+        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId15">
+        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4808,100 +5912,118 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1"/>
+        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:P23"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="11" max="11" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
+    <row r="1" spans="1:17" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="1"/>
     </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
+    <row r="10" spans="1:17">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="11"/>
     </row>
-    <row r="12" spans="1:13" ht="24">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
+    <row r="12" spans="1:17" ht="24">
+      <c r="A12" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
     </row>
-    <row r="13" spans="1:13" ht="24">
-      <c r="B13" s="2"/>
+    <row r="13" spans="1:17" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
+    <row r="14" spans="1:17" ht="18.75">
+      <c r="B14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:17">
       <c r="B22" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="24">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>45</v>
+    <row r="23" spans="2:17" ht="24">
+      <c r="N23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="27" spans="2:17" ht="24">
+      <c r="Q27" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4910,287 +6032,57 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId5">
+        <control shapeId="9220" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5"/>
+        <control shapeId="9220" r:id="rId4" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId7">
+        <control shapeId="9219" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H1" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4"/>
+        <control shapeId="9219" r:id="rId6" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:P23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="24">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="L1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="L12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="16:16" ht="24">
-      <c r="P23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2">
+        <control shapeId="9218" r:id="rId8" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -5201,178 +6093,22 @@
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2"/>
+        <control shapeId="9218" r:id="rId8" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1">
+        <control shapeId="9217" r:id="rId10" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:Q27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="5" max="5" width="4.625" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="4.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="24">
-      <c r="A1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="N10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="24">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17">
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="21">
-      <c r="Q23" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="24">
-      <c r="Q27" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="J10:L10"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5391,182 +6127,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8"/>
+        <control shapeId="9217" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/test/バーコードテストデータ.xlsx
+++ b/test/バーコードテストデータ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ｵﾘｴﾝﾄ" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="6ﾊﾞｲﾄ目" sheetId="7" r:id="rId7"/>
     <sheet name="ﾃｨｴﾗM0600" sheetId="8" r:id="rId8"/>
     <sheet name="ｸﾎﾞﾀM0600" sheetId="9" r:id="rId9"/>
+    <sheet name="v240101" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>32A35-06401</t>
     <phoneticPr fontId="1"/>
@@ -381,12 +382,134 @@
     <t>v23.10.23バグ</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1-7-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>106200-59801</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T1855-70743</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v24.01.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動倉庫テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V0521-7772-1 R</t>
+  </si>
+  <si>
+    <t>V0521-77721</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01350-63316</t>
+  </si>
+  <si>
+    <t>照合エラーデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照合OKデータ</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1G47036503</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1G470-36503</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1G470-3650-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V052177721</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excel100%表示倍率のとき文字数＊17をWidthに設定</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QRチェックボックステスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臨海棚番なし</t>
+    <rPh sb="2" eb="4">
+      <t>タナバン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手入力チェックボックステスト</t>
+    <rPh sb="0" eb="1">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QRはスキャン可能</t>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QR以外はスキャン不可</t>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width180</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,8 +587,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,13 +617,105 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -496,7 +727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -518,6 +749,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -530,14 +800,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -559,8 +835,56 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
@@ -573,10 +897,298 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -589,342 +1201,6 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
@@ -935,7 +1211,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -951,7 +1227,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
+  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -967,13 +1243,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
+  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -983,13 +1275,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
+  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -999,29 +1307,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
+  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -1031,23 +1323,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1063,29 +1339,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -1095,7 +1355,23 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1111,7 +1387,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1119,15 +1395,15 @@
 
 <file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1135,117 +1411,21 @@
 
 <file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="84RD5586426170240148001                0000008     0000000                      20231026            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RD551-64261"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RC7949247114535793001                0000005     0000000            01010     20231026            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3545"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3069"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RC791-92471"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -1255,13 +1435,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
+  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -1271,16 +1467,224 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="Value" ax:value="RC791-92471"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RC7949247114535793001                0000005     0000000            01010     20231026            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RD551-64261"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="84RD5586426170240148001                0000008     0000000                      20231026            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1G47036503"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1G470-36503"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="106200-59801"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1-7-2"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="01350-63316"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V0521-77721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="6350"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1058"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="0"/>
+  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
@@ -1293,14 +1697,30 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
@@ -1311,15 +1731,15 @@
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4789"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1588"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1502,8 +1922,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -1557,8 +1977,8 @@
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>504825</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -1612,8 +2032,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -1623,6 +2043,506 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1030"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10241" name="BarCodeCtrl1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10241"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10242" name="BarCodeCtrl2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10242"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10243" name="BarCodeCtrl3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10243"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10244" name="BarCodeCtrl4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10244"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10245" name="BarCodeCtrl5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10245"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10246" name="BarCodeCtrl6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10246"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10247" name="BarCodeCtrl7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10247"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10248" name="BarCodeCtrl8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10248"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10250" name="BarCodeCtrl9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10250"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1831,16 +2751,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1886,14 +2806,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>495300</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>304800</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -1941,14 +2861,14 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>38100</xdr:colOff>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>28</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>390525</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>152400</xdr:colOff>
           <xdr:row>31</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -2117,8 +3037,8 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
@@ -2172,8 +3092,8 @@
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
@@ -2337,15 +3257,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>123825</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>66675</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2392,15 +3312,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>15</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>361950</xdr:colOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2568,7 +3488,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
+          <xdr:colOff>485775</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -2623,7 +3543,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -3353,9 +4273,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3408,9 +4328,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3463,9 +4383,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3518,9 +4438,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3798,9 +4718,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3853,9 +4773,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3908,9 +4828,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3963,9 +4883,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
-          <xdr:row>20</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:colOff>552450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4274,30 +5194,103 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:B27"/>
+  <dimension ref="B1:K33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:2" ht="24">
+    <row r="1" spans="2:11" ht="24">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="24">
+    <row r="8" spans="2:11">
+      <c r="I8">
+        <f>LEN(B1)</f>
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <f>11*17</f>
+        <v>187</v>
+      </c>
+      <c r="K8">
+        <f>I8*18</f>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="14.25" thickBot="1"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="2:11" ht="14.25" thickBot="1">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="14" spans="2:11" ht="24">
       <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="24">
+    <row r="21" spans="2:10">
+      <c r="I21">
+        <f>LEN(B14)</f>
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <f>15*17</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="24">
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="33" spans="9:10">
+      <c r="I33">
+        <f>LEN(B27)</f>
+        <v>15</v>
+      </c>
+      <c r="J33">
+        <f>I33*17</f>
+        <v>255</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:J12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4306,83 +5299,58 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>28</xdr:row>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6"/>
+        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5">
+        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5"/>
+        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4">
+        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4401,73 +5369,455 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3"/>
+        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2"/>
+        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
+        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1"/>
+        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="24">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="H13" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:16" ht="24">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10">
+      <c r="H24" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="29" spans="8:10">
+      <c r="H29">
+        <f>LEN(H15)</f>
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <f>H29*17</f>
+        <v>170</v>
+      </c>
+      <c r="J29" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="H13:J13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10250" r:id="rId4" name="BarCodeCtrl9">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M15" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10250" r:id="rId4" name="BarCodeCtrl9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10248" r:id="rId6" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M3" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10248" r:id="rId6" name="BarCodeCtrl8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10244" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10244" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="A14" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10242" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10242" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="A3" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId14" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10245" r:id="rId16" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10245" r:id="rId16" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10246" r:id="rId18" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10246" r:id="rId18" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10247" r:id="rId20" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10247" r:id="rId20" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:F27"/>
+  <dimension ref="B1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:6" ht="24">
+    <row r="1" spans="2:12" ht="24">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4475,7 +5825,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="24">
+    <row r="4" spans="2:12">
+      <c r="L4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="H8">
+        <f>LEN(B1)</f>
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <f>15*17</f>
+        <v>255</v>
+      </c>
+      <c r="J8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="14.25" thickBot="1"/>
+    <row r="10" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:12" ht="13.5" customHeight="1">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="14" spans="2:12" ht="24">
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
@@ -4483,12 +5887,51 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="24">
+    <row r="18" spans="2:12">
+      <c r="L18">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="H21">
+        <f>LEN(B14)</f>
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <f>15*17</f>
+        <v>255</v>
+      </c>
+      <c r="J21">
+        <f>15*18</f>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" ht="24">
       <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="30" spans="2:12">
+      <c r="L30">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10">
+      <c r="H33">
+        <f>LEN(B27)</f>
+        <v>15</v>
+      </c>
+      <c r="I33">
+        <v>255</v>
+      </c>
+      <c r="J33">
+        <v>270</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B10:J12"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -4497,203 +5940,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="24">
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="24">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1">
+        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -4713,12 +5960,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2">
+        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
@@ -4738,48 +5985,73 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2"/>
+        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4">
+        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4"/>
+        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5">
+        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
@@ -4788,20 +6060,45 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5"/>
+        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:F14"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4809,27 +6106,44 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="24">
+    <row r="1" spans="2:10" ht="24">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="24">
+    <row r="7" spans="2:10">
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <f>10*17</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="24">
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="24">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="18.75">
+    <row r="14" spans="2:10" ht="18.75">
       <c r="B14" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4841,8 +6155,8 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4851,8 +6165,8 @@
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>361950</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>19</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </to>
@@ -4861,13 +6175,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5"/>
+        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -4876,8 +6190,8 @@
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
@@ -4886,12 +6200,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4"/>
+        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2">
+        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -4911,12 +6225,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2"/>
+        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1">
+        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
@@ -4936,7 +6250,167 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="24">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="K9">
+        <f>17*16.6</f>
+        <v>282.20000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="24">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22">
+        <f>22*16.6</f>
+        <v>365.20000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -4949,7 +6423,7 @@
   <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4966,6 +6440,21 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="2:13">
+      <c r="L4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="I7">
+        <f>LEN(B1)</f>
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <f>I7*17</f>
+        <v>187</v>
+      </c>
+    </row>
     <row r="10" spans="2:13">
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -4995,7 +6484,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="18" spans="2:11">
+      <c r="K18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -5009,8 +6511,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId5">
+        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5029,49 +6656,121 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="24">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId7">
+        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>5</xdr:row>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
@@ -5079,38 +6778,63 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4"/>
+        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId11">
+        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5"/>
+        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId13">
+        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -5129,13 +6853,143 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3"/>
+        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId15">
+        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="L12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="16:16" ht="24">
+      <c r="P23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -5154,100 +7008,209 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6"/>
+        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:P23"/>
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="J10" sqref="J10:L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="5" max="5" width="4.625" customWidth="1"/>
+    <col min="9" max="9" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24">
-      <c r="A12" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="N10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="24">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="J12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="18.75">
+      <c r="N12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="1:17" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="18.75">
       <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
+        <v>34</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
       <c r="B22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="24">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="21">
+      <c r="Q23" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" ht="24">
+      <c r="Q27" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="J10:L10"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5256,7 +7219,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1">
+        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -5276,12 +7239,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2">
+        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
@@ -5301,22 +7264,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2"/>
+        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
+        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
@@ -5326,22 +7289,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3"/>
+        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId11">
+        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
+                <xdr:col>6</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
@@ -5351,22 +7314,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6"/>
+        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId13">
+        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
@@ -5376,22 +7339,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4"/>
+        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId15">
+        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
+                <xdr:col>9</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
+                <xdr:col>10</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
@@ -5401,83 +7364,168 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5"/>
+        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:P23"/>
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="11" max="11" width="4.625" customWidth="1"/>
+    <col min="13" max="13" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:17" ht="24">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="L1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24">
+        <v>58</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="12" spans="1:17" ht="24">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="L12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24">
+        <v>60</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" ht="24">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="16:16" ht="24">
-      <c r="P23" s="4" t="s">
-        <v>45</v>
+    <row r="14" spans="1:17" ht="18.75">
+      <c r="B14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="H14" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="24">
+      <c r="N23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="27" spans="2:17" ht="24">
+      <c r="Q27" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="H14:J14"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5486,7 +7534,7 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1">
+        <control shapeId="9217" r:id="rId4" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -5506,12 +7554,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="9217" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2">
+        <control shapeId="9218" r:id="rId6" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
@@ -5531,22 +7579,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2"/>
+        <control shapeId="9218" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
+        <control shapeId="9219" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H1" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
@@ -5556,22 +7604,22 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3"/>
+        <control shapeId="9219" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId11">
+        <control shapeId="9220" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
+                <xdr:col>7</xdr:col>
                 <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
+                <xdr:col>8</xdr:col>
                 <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>19050</xdr:rowOff>
@@ -5581,553 +7629,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:Q27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="5" max="5" width="4.625" customWidth="1"/>
-    <col min="9" max="9" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="4.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="24">
-      <c r="A1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="N10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="24">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-    </row>
-    <row r="13" spans="1:17" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:17">
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="21">
-      <c r="Q23" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:17" ht="24">
-      <c r="Q27" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="J10:L10"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:Q27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-    <col min="7" max="7" width="4.625" customWidth="1"/>
-    <col min="11" max="11" width="4.625" customWidth="1"/>
-    <col min="13" max="13" width="4.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="24">
-      <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="H10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="12" spans="1:17" ht="24">
-      <c r="A12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" spans="1:17" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18.75">
-      <c r="B14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="H14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="22" spans="2:17">
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" ht="24">
-      <c r="N23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="27" spans="2:17" ht="24">
-      <c r="Q27" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="H14:J14"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9220" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9220" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9219" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9219" r:id="rId6" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9218" r:id="rId8" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9218" r:id="rId8" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9217" r:id="rId10" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9217" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="9220" r:id="rId10" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/test/バーコードテストデータ.xlsx
+++ b/test/バーコードテストデータ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\pokayoke\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\330_物流\02_KEYENCE_ハンディターミナル\10_開発ソース\vbnet-wh-pokayoke\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ｵﾘｴﾝﾄ" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,8 @@
     <sheet name="6ﾊﾞｲﾄ目" sheetId="7" r:id="rId7"/>
     <sheet name="ﾃｨｴﾗM0600" sheetId="8" r:id="rId8"/>
     <sheet name="ｸﾎﾞﾀM0600" sheetId="9" r:id="rId9"/>
-    <sheet name="v240101" sheetId="10" r:id="rId10"/>
+    <sheet name="v240108" sheetId="10" r:id="rId10"/>
+    <sheet name="v240219" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>32A35-06401</t>
     <phoneticPr fontId="1"/>
@@ -502,6 +503,26 @@
   </si>
   <si>
     <t>width180</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v24.02.19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01-07-02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V1311-62122</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>37410-75747</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(01-01-01)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -727,7 +748,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -760,6 +781,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,6 +824,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -809,11 +836,8 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1139,8 +1163,8 @@
 
 <file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1155,8 +1179,8 @@
 
 <file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1171,8 +1195,8 @@
 
 <file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1203,8 +1227,8 @@
 
 <file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1219,8 +1243,8 @@
 
 <file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1235,8 +1259,8 @@
 
 <file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1251,8 +1275,8 @@
 
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1267,8 +1291,8 @@
 
 <file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1283,8 +1307,8 @@
 
 <file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1299,8 +1323,8 @@
 
 <file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1315,8 +1339,8 @@
 
 <file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1331,8 +1355,8 @@
 
 <file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1347,8 +1371,8 @@
 
 <file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1379,8 +1403,8 @@
 
 <file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1395,8 +1419,8 @@
 
 <file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1411,8 +1435,8 @@
 
 <file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1427,8 +1451,8 @@
 
 <file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1443,8 +1467,8 @@
 
 <file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1459,8 +1483,8 @@
 
 <file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1475,8 +1499,8 @@
 
 <file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1491,8 +1515,8 @@
 
 <file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1507,8 +1531,8 @@
 
 <file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1681,6 +1705,38 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="37410-75747"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="01-07-02"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4780"/>
@@ -1692,6 +1748,22 @@
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V1311-62122"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2580,6 +2652,176 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11265" name="BarCodeCtrl1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11265"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11266" name="BarCodeCtrl2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11266"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11267" name="BarCodeCtrl3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s11267"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5223,39 +5465,39 @@
     </row>
     <row r="9" spans="2:11" ht="14.25" thickBot="1"/>
     <row r="10" spans="2:11">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="14" spans="2:11" ht="24">
       <c r="B14" s="1" t="s">
@@ -5456,8 +5698,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5498,28 +5740,28 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="21" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="H13" s="26" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="H13" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:16" ht="24">
       <c r="A14" s="1" t="s">
@@ -5544,11 +5786,11 @@
       </c>
     </row>
     <row r="24" spans="8:10">
-      <c r="H24" s="27" t="s">
+      <c r="H24" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="29" spans="8:10">
       <c r="H29">
@@ -5559,7 +5801,7 @@
         <f>H29*17</f>
         <v>170</v>
       </c>
-      <c r="J29" s="28" t="s">
+      <c r="J29" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5806,6 +6048,143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24">
+      <c r="D3" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="H4" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="H13" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+    </row>
+    <row r="14" spans="1:11" ht="24">
+      <c r="H14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H13:J13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="11267" r:id="rId4" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="11267" r:id="rId4" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="11266" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="11266" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="11265" r:id="rId8" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="11265" r:id="rId8" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
@@ -5845,39 +6224,39 @@
     </row>
     <row r="9" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="10" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="14" spans="2:12" ht="24">
       <c r="B14" s="1" t="s">
@@ -7140,11 +7519,11 @@
       <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
       <c r="N10" t="s">
         <v>41</v>
       </c>
@@ -7171,12 +7550,12 @@
       <c r="M12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
     </row>
     <row r="13" spans="1:17" ht="24">
       <c r="B13" s="2" t="s">
@@ -7494,16 +7873,16 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="H14" s="23" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="H14" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" t="s">

--- a/test/バーコードテストデータ.xlsx
+++ b/test/バーコードテストデータ.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\330_物流\02_KEYENCE_ハンディターミナル\10_開発ソース\vbnet-wh-pokayoke\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\vbnet-wh-pokayoke\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ｵﾘｴﾝﾄ" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="ｸﾎﾞﾀM0600" sheetId="9" r:id="rId9"/>
     <sheet name="v240108" sheetId="10" r:id="rId10"/>
     <sheet name="v240219" sheetId="11" r:id="rId11"/>
+    <sheet name="v240820" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>32A35-06401</t>
     <phoneticPr fontId="1"/>
@@ -523,6 +524,80 @@
   </si>
   <si>
     <t>(01-01-01)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v24.08.20</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出荷指示書消し込み</t>
+    <rPh sb="0" eb="2">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シジショ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1411-63311</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R141163311</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15本</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>枚方</t>
+    <rPh sb="0" eb="2">
+      <t>ヒラカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筑波</t>
+    <rPh sb="0" eb="2">
+      <t>ツクバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T185570743</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40本</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB更新あり</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB更新なし</t>
+    <rPh sb="2" eb="4">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -785,6 +860,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,9 +914,6 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1547,8 +1622,8 @@
 
 <file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1579,8 +1654,8 @@
 
 <file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1595,8 +1670,8 @@
 
 <file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1611,8 +1686,8 @@
 
 <file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1627,8 +1702,8 @@
 
 <file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1643,8 +1718,8 @@
 
 <file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1659,8 +1734,8 @@
 
 <file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1675,8 +1750,8 @@
 
 <file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1691,8 +1766,8 @@
 
 <file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="6350"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1058"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
@@ -1707,8 +1782,8 @@
 
 <file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1723,8 +1798,8 @@
 
 <file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1755,6 +1830,38 @@
 
 <file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V1311-62122"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="R141163311"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
@@ -1763,7 +1870,39 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V1311-62122"/>
+  <ax:ocxPr ax:name="Value" ax:value="R1411-63311"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2494,10 +2633,10 @@
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>257175</xdr:colOff>
-          <xdr:row>27</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2785,6 +2924,231 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s11267"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12289" name="BarCodeCtrl1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12289"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12290" name="BarCodeCtrl2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12290"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12291" name="BarCodeCtrl3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12291"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12292" name="BarCodeCtrl4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s12292"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5465,39 +5829,39 @@
     </row>
     <row r="9" spans="2:11" ht="14.25" thickBot="1"/>
     <row r="10" spans="2:11">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="2:11" ht="14.25" thickBot="1">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="14" spans="2:11" ht="24">
       <c r="B14" s="1" t="s">
@@ -5698,8 +6062,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5740,28 +6104,28 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="22" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="H13" s="28" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="H13" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:16" ht="24">
       <c r="A14" s="1" t="s">
@@ -5786,11 +6150,11 @@
       </c>
     </row>
     <row r="24" spans="8:10">
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="29" spans="8:10">
       <c r="H29">
@@ -6031,10 +6395,10 @@
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
@@ -6053,7 +6417,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -6066,7 +6430,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="24">
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="12" t="s">
         <v>90</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -6074,24 +6438,24 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:11" ht="24">
       <c r="H14" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -6185,6 +6549,191 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24">
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45532</v>
+      </c>
+      <c r="M3" s="5">
+        <v>45533</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="H4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="H13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="24">
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12289" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12289" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12290" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12290" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12291" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12291" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12292" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12292" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
@@ -6224,39 +6773,39 @@
     </row>
     <row r="9" spans="2:12" ht="14.25" thickBot="1"/>
     <row r="10" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="2:12" ht="13.5" customHeight="1" thickBot="1">
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="21"/>
     </row>
     <row r="14" spans="2:12" ht="24">
       <c r="B14" s="1" t="s">
@@ -7519,11 +8068,11 @@
       <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="N10" t="s">
         <v>41</v>
       </c>
@@ -7550,12 +8099,12 @@
       <c r="M12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13" spans="1:17" ht="24">
       <c r="B13" s="2" t="s">
@@ -7873,16 +8422,16 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="18.75">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="H14" s="24" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="H14" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="22" spans="2:17">
       <c r="B22" t="s">

--- a/test/バーコードテストデータ.xlsx
+++ b/test/バーコードテストデータ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ｵﾘｴﾝﾄ" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="v240108" sheetId="10" r:id="rId10"/>
     <sheet name="v240219" sheetId="11" r:id="rId11"/>
     <sheet name="v240820" sheetId="13" r:id="rId12"/>
+    <sheet name="v240918" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
   <si>
     <t>32A35-06401</t>
     <phoneticPr fontId="1"/>
@@ -598,6 +599,14 @@
     <rPh sb="2" eb="4">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R1431-45911</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R143145911</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -934,54 +943,6 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4780"/>
   <ax:ocxPr ax:name="_cy" ax:value="1600"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
@@ -996,295 +957,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1300,6 +973,342 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
@@ -1310,7 +1319,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1326,7 +1335,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
+  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1342,13 +1351,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1358,13 +1383,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
+  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1374,29 +1415,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
+  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1406,23 +1431,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
+  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1438,13 +1447,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
+  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1454,23 +1479,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1486,7 +1495,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1502,7 +1511,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1513,12 +1522,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1534,13 +1543,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1550,13 +1575,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
+  <ax:ocxPr ax:name="Value" ax:value="84RD5586426170240148001                0000008     0000000                      20231026            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1566,13 +1591,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RC791-92471"/>
+  <ax:ocxPr ax:name="Value" ax:value="RD551-64261"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RC7949247114535793001                0000005     0000000            01010     20231026            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1582,13 +1623,29 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RC7949247114535793001                0000005     0000000            01010     20231026            "/>
+  <ax:ocxPr ax:name="Value" ax:value="RC791-92471"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="0"/>
+  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1596,54 +1653,6 @@
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RD551-64261"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="84RD5586426170240148001                0000008     0000000                      20231026            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1G47036503"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
@@ -1662,16 +1671,192 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V0521-77721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="01350-63316"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1-7-2"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="106200-59801"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="1G470-36503"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1G47036503"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V1311-62122"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="01-07-02"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="37410-75747"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1684,135 +1869,119 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="R1411-63311"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="106200-59801"/>
+  <ax:ocxPr ax:name="Value" ax:value="R141163311"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1-7-2"/>
+  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="R1431-45911"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="01350-63316"/>
+  <ax:ocxPr ax:name="Value" ax:value="R143145911"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V0521-77721"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="0"/>
-  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="37410-75747"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="01-07-02"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4780"/>
   <ax:ocxPr ax:name="_cy" ax:value="1600"/>
@@ -1828,110 +1997,14 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V1311-62122"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R141163311"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R1411-63311"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
@@ -1942,15 +2015,15 @@
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -3186,6 +3259,231 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13313" name="BarCodeCtrl1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s13313"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13314" name="BarCodeCtrl2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s13314"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13315" name="BarCodeCtrl3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s13315"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13316" name="BarCodeCtrl4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s13316"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -5905,8 +6203,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1">
+        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -5925,132 +6348,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6"/>
+        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -6185,18 +6483,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10250" r:id="rId4" name="BarCodeCtrl9">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M15" r:id="rId5">
+        <control shapeId="10247" r:id="rId4" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10247" r:id="rId4" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10246" r:id="rId6" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -6205,23 +6528,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10250" r:id="rId4" name="BarCodeCtrl9"/>
+        <control shapeId="10246" r:id="rId6" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10248" r:id="rId6" name="BarCodeCtrl8">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M3" r:id="rId7">
+        <control shapeId="10245" r:id="rId8" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -6230,24 +6553,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10248" r:id="rId6" name="BarCodeCtrl8"/>
+        <control shapeId="10245" r:id="rId8" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10244" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId9">
+        <control shapeId="10241" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="A3" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -6255,32 +6578,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10244" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="A14" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId10" name="BarCodeCtrl3"/>
+        <control shapeId="10241" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6310,18 +6608,68 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="A3" r:id="rId15">
+        <control shapeId="10243" r:id="rId14" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="A14" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId14" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10244" r:id="rId16" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10244" r:id="rId16" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10248" r:id="rId18" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M3" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -6330,13 +6678,100 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId14" name="BarCodeCtrl1"/>
+        <control shapeId="10248" r:id="rId18" name="BarCodeCtrl8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10245" r:id="rId16" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId17">
+        <control shapeId="10250" r:id="rId20" name="BarCodeCtrl9">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M15" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10250" r:id="rId20" name="BarCodeCtrl9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24">
+      <c r="D3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="H4" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="H13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" ht="24">
+      <c r="H14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H13:J13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="11265" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -6355,144 +6790,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10245" r:id="rId16" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10246" r:id="rId18" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10246" r:id="rId18" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10247" r:id="rId20" name="BarCodeCtrl7">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10247" r:id="rId20" name="BarCodeCtrl7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="24">
-      <c r="A1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="24">
-      <c r="D3" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="H4" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="H13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:11" ht="24">
-      <c r="H14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H13:J13"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="11267" r:id="rId4" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="11267" r:id="rId4" name="BarCodeCtrl3"/>
+        <control shapeId="11265" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6522,167 +6820,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="11265" r:id="rId8" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="11265" r:id="rId8" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:O14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:15" ht="24">
-      <c r="A1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24">
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="5">
-        <v>45532</v>
-      </c>
-      <c r="M3" s="5">
-        <v>45533</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="H4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="H13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" ht="24">
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="12289" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12290" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="12290" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId8" name="BarCodeCtrl3">
+        <control shapeId="11267" r:id="rId8" name="BarCodeCtrl3">
           <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6702,13 +6840,98 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId8" name="BarCodeCtrl3"/>
+        <control shapeId="11267" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24">
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45532</v>
+      </c>
+      <c r="M3" s="5">
+        <v>45533</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="H4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="H13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="24">
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12292" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId11">
+        <control shapeId="12292" r:id="rId4" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6727,7 +6950,260 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12292" r:id="rId10" name="BarCodeCtrl4"/>
+        <control shapeId="12292" r:id="rId4" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12291" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12291" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12290" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12290" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12289" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12289" r:id="rId10" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet13"/>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3:O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24">
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="H4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="H13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="24">
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13316" r:id="rId4" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13316" r:id="rId4" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13315" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13315" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13314" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13314" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13313" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13313" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -6868,7 +7344,222 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1">
+        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="B1:J21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="24">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <f>10*17</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="24">
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
@@ -6888,12 +7579,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2">
+        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
@@ -6913,99 +7604,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2"/>
+        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>31</xdr:row>
                 <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
@@ -7013,78 +7629,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6"/>
+        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:J21"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="24">
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="I7">
-        <v>10</v>
-      </c>
-      <c r="J7">
-        <f>10*17</f>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="24">
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="9:10">
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -7103,37 +7654,122 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5"/>
+        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B1:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="24">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="K9">
+        <f>17*16.6</f>
+        <v>282.20000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="24">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22">
+        <f>22*16.6</f>
+        <v>365.20000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4"/>
+        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2">
+        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -7153,12 +7789,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2"/>
+        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1">
+        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
@@ -7178,17 +7814,17 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:K22"/>
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
@@ -7199,39 +7835,75 @@
     <col min="1" max="1" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="24">
+    <row r="1" spans="2:13" ht="24">
       <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="K9">
-        <f>17*16.6</f>
-        <v>282.20000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="24">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
+      <c r="L4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="I7">
+        <f>LEN(B1)</f>
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <f>I7*17</f>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="24">
       <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="24">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="24">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="18.75">
+    <row r="14" spans="2:13" ht="18.75">
       <c r="B14" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="11:11">
-      <c r="K22">
-        <f>22*16.6</f>
-        <v>365.20000000000005</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="K18">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7243,8 +7915,255 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="24">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -7263,13 +8182,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -7288,159 +8207,38 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2"/>
+        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4"/>
+        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="B1:M23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:13" ht="24">
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="L4">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="I7">
-        <f>LEN(B1)</f>
-        <v>11</v>
-      </c>
-      <c r="J7">
-        <f>I7*17</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="24">
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="K18">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="I21">
-        <v>10</v>
-      </c>
-      <c r="J21">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId5">
+        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -7459,13 +8257,193 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6"/>
+        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
+        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="24">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="L12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24">
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75">
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="16:16" ht="24">
+      <c r="P23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -7484,260 +8462,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3"/>
+        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:P23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="24">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" ht="24">
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId9">
+        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -7756,262 +8487,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:P23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="24">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="L1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="24">
-      <c r="A12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="1"/>
-      <c r="L12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="24">
-      <c r="B13" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18.75">
-      <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="16:16" ht="24">
-      <c r="P23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8147,8 +8623,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8167,182 +8818,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8"/>
+        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8462,8 +8938,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9217" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+        <control shapeId="9220" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9220" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9219" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9219" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9218" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9218" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9217" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8482,82 +9033,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9217" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9218" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9218" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9219" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H1" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9219" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9220" r:id="rId10" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9220" r:id="rId10" name="BarCodeCtrl6"/>
+        <control shapeId="9217" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/test/バーコードテストデータ.xlsx
+++ b/test/バーコードテストデータ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ｵﾘｴﾝﾄ" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="v240219" sheetId="11" r:id="rId11"/>
     <sheet name="v240820" sheetId="13" r:id="rId12"/>
     <sheet name="v240918" sheetId="14" r:id="rId13"/>
+    <sheet name="v241003" sheetId="15" r:id="rId14"/>
+    <sheet name="v241104" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="137">
   <si>
     <t>32A35-06401</t>
     <phoneticPr fontId="1"/>
@@ -609,12 +611,168 @@
     <t>R143145911</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>v24.10.03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキャン後空白になってしまう現象調査</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>V0531-65411</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>堺</t>
+    <rPh sb="0" eb="1">
+      <t>サカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RD158-63171</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RD451-64082</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KQR_TagZ014435796V05316541120ZWAS0B450423114400010V05316541165100502019N192262024100904231144</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80本</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23RD1586317170242169002652-132 652-132 00000099B   0000009     -    -           20241009            </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18本</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23RD4516408270251616001558-064 558-064 00000209B   0000020     -    -           20241009            </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20本</t>
+    <rPh sb="2" eb="3">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">v24.11.04 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出荷指示システム用に大型アップデート</t>
+    <rPh sb="0" eb="2">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オオガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C0105-G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23RA1686214186970829001703-611 703-611 0000005PT37 0000005     -    -           20240805            </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA221-63121</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23RA2216312187152609001009-014 009-014 00000159B   0000015     -    -           20240807            </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*　3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11/4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*　1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RC781-92331</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HMCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TKHMCD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">23RC7889293187354981001        KAD-OMA 0000003MM   0000003RC781-9233-101010     20240807            </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*　4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C0105-Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RA168-62141</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,8 +866,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,8 +916,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -823,6 +1017,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -832,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,6 +1146,39 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1855,8 +2111,8 @@
 
 <file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1871,8 +2127,8 @@
 
 <file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1887,8 +2143,8 @@
 
 <file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1903,8 +2159,8 @@
 
 <file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1919,8 +2175,8 @@
 
 <file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1935,8 +2191,8 @@
 
 <file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1951,8 +2207,8 @@
 
 <file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1967,8 +2223,8 @@
 
 <file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -1976,6 +2232,22 @@
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="R143145911"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ014435796V05316541120ZWAS0B450423114400010V05316541165100502019N192262024100904231144"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1997,6 +2269,166 @@
 </ax:ocx>
 </file>
 
+<file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V0531-65411"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RD1586317170242169002652-132 652-132 00000099B   0000009     -    -           20241009            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RD158-63171"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RD4516408270251616001558-064 558-064 00000209B   0000020     -    -           20241009            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RD451-64082"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RC781-92331"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RC7889293187354981001        KAD-OMA 0000003MM   0000003RC781-9233-101010     20240807            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RA221-63121"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RA2216312187152609001009-014 009-014 00000159B   0000015     -    -           20240807            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
 <file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4780"/>
@@ -2008,6 +2440,54 @@
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RA168-62141"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RA1686214186970829001703-611 703-611 0000005PT37 0000005     -    -           20240805            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -3484,6 +3964,786 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14337" name="BarCodeCtrl1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14337"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14338" name="BarCodeCtrl2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14338"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14339" name="BarCodeCtrl3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14339"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14340" name="BarCodeCtrl4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14340"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14341" name="BarCodeCtrl5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14341"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14342" name="BarCodeCtrl6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s14342"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>140154</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>639536</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15361" name="BarCodeCtrl1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15361"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15362" name="BarCodeCtrl2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15362"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>112940</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>612322</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15363" name="BarCodeCtrl3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15363"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15364" name="BarCodeCtrl4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15364"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>112939</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>612321</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15365" name="BarCodeCtrl5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15365"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15366" name="BarCodeCtrl6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15366"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15367" name="BarCodeCtrl7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15367"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15368" name="BarCodeCtrl8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15368"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7037,7 +8297,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L3" sqref="L3:O3"/>
     </sheetView>
   </sheetViews>
@@ -7204,6 +8464,656 @@
       </mc:Choice>
       <mc:Fallback>
         <control shapeId="13313" r:id="rId10" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet14"/>
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:N25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="24">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+    </row>
+    <row r="4" spans="1:14" ht="24">
+      <c r="G4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="G13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:14" ht="24">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+    </row>
+    <row r="15" spans="1:14" ht="24">
+      <c r="J15" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="24">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+    </row>
+    <row r="26" spans="1:14" ht="24">
+      <c r="J26" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F25:N25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14337" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F3" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14337" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14338" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B3" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14338" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14339" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F14" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14339" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14340" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14340" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14341" r:id="rId12" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F25" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14341" r:id="rId12" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14342" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B25" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14342" r:id="rId14" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="24">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="R3" s="36"/>
+    </row>
+    <row r="4" spans="1:18" ht="24">
+      <c r="B4" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" s="37"/>
+      <c r="K4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="G13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" ht="24">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="R14" s="40"/>
+    </row>
+    <row r="15" spans="1:18" ht="24">
+      <c r="B15" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" s="37"/>
+      <c r="K15" s="12">
+        <v>45</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="24">
+      <c r="A25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+    </row>
+    <row r="26" spans="1:14" ht="24">
+      <c r="B26" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="12">
+        <v>12</v>
+      </c>
+      <c r="L26" s="12">
+        <v>3</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="F14:N14"/>
+    <mergeCell ref="F25:N25"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15367" r:id="rId4" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15367" r:id="rId4" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15366" r:id="rId6" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B25" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15366" r:id="rId6" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15365" r:id="rId8" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F25" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15365" r:id="rId8" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15364" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15364" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15363" r:id="rId12" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F14" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15363" r:id="rId12" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15362" r:id="rId14" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B3" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15362" r:id="rId14" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15361" r:id="rId16" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F3" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15361" r:id="rId16" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15368" r:id="rId18" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15368" r:id="rId18" name="BarCodeCtrl8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/test/バーコードテストデータ.xlsx
+++ b/test/バーコードテストデータ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="ｵﾘｴﾝﾄ" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="v240918" sheetId="14" r:id="rId13"/>
     <sheet name="v241003" sheetId="15" r:id="rId14"/>
     <sheet name="v241104" sheetId="16" r:id="rId15"/>
+    <sheet name="v241104ラミネート" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -891,7 +892,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,6 +926,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1055,7 +1062,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,6 +1186,12 @@
     <xf numFmtId="49" fontId="14" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1199,6 +1212,70 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX100.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4780"/>
   <ax:ocxPr ax:name="_cy" ax:value="1600"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
@@ -1213,7 +1290,295 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1229,342 +1594,6 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
@@ -1575,7 +1604,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1591,7 +1620,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
+  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1607,7 +1636,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
+  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1618,7 +1647,55 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1629,39 +1706,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1671,23 +1716,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1703,7 +1732,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1714,12 +1743,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1727,15 +1756,15 @@
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1751,7 +1780,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1767,7 +1796,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1778,12 +1807,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1799,7 +1828,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
+  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1810,12 +1839,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
+  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1826,7 +1855,55 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RC791-92471"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RC7949247114535793001                0000005     0000000            01010     20231026            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RD551-64261"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1837,7 +1914,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1847,45 +1924,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RD551-64261"/>
+  <ax:ocxPr ax:name="Value" ax:value="1G47036503"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RC7949247114535793001                0000005     0000000            01010     20231026            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RC791-92471"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4780"/>
   <ax:ocxPr ax:name="_cy" ax:value="1600"/>
@@ -1893,22 +1938,6 @@
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="0"/>
-  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
@@ -1927,7 +1956,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="Value" ax:value="1G470-36503"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1938,12 +1967,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V0521-77721"/>
+  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1959,7 +1988,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="01350-63316"/>
+  <ax:ocxPr ax:name="Value" ax:value="106200-59801"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1970,7 +1999,7 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1991,13 +2020,173 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="106200-59801"/>
+  <ax:ocxPr ax:name="Value" ax:value="01350-63316"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V0521-77721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="0"/>
+  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="37410-75747"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="01-07-02"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V1311-62122"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="R141163311"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="R1411-63311"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -2013,7 +2202,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -2023,13 +2212,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1G470-36503"/>
+  <ax:ocxPr ax:name="Value" ax:value="R143145911"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -2039,13 +2228,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1G47036503"/>
+  <ax:ocxPr ax:name="Value" ax:value="R1431-45911"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -2055,61 +2244,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V1311-62122"/>
+  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="01-07-02"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="37410-75747"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -2125,118 +2266,6 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R1411-63311"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R141163311"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R1431-45911"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R143145911"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
@@ -2247,7 +2276,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ014435796V05316541120ZWAS0B450423114400010V05316541165100502019N192262024100904231144"/>
+  <ax:ocxPr ax:name="Value" ax:value="RD451-64082"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2255,15 +2284,15 @@
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2279,7 +2308,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V0531-65411"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RD4516408270251616001558-064 558-064 00000209B   0000020     -    -           20241009            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2295,7 +2324,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RD1586317170242169002652-132 652-132 00000099B   0000009     -    -           20241009            "/>
+  <ax:ocxPr ax:name="Value" ax:value="RD158-63171"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2311,7 +2340,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RD158-63171"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RD1586317170242169002652-132 652-132 00000099B   0000009     -    -           20241009            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2327,7 +2356,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RD4516408270251616001558-064 558-064 00000209B   0000020     -    -           20241009            "/>
+  <ax:ocxPr ax:name="Value" ax:value="V0531-65411"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2343,7 +2372,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RD451-64082"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ014435796V05316541120ZWAS0B450423114400010V05316541165100502019N192262024100904231144"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2359,13 +2388,61 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RA1686214186970829001703-611 703-611 0000005PT37 0000005     -    -           20240805            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RA168-62141"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RA2216312187152609001009-014 009-014 00000159B   0000015     -    -           20240807            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -2375,18 +2452,34 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RC781-92331"/>
+  <ax:ocxPr ax:name="Value" ax:value="RA221-63121"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3281"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -2397,7 +2490,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3307"/>
   <ax:ocxPr ax:name="_cy" ax:value="3307"/>
@@ -2407,71 +2500,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RA221-63121"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RA2216312187152609001009-014 009-014 00000159B   0000015     -    -           20240807            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RA168-62141"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RA1686214186970829001703-611 703-611 0000005PT37 0000005     -    -           20240805            "/>
+  <ax:ocxPr ax:name="Value" ax:value="RC781-92331"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2487,7 +2516,119 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2495,15 +2636,175 @@
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX99.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-Y"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -4306,13 +4607,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>140154</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>639536</xdr:colOff>
+          <xdr:colOff>638175</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -4416,13 +4717,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>112940</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>612322</xdr:colOff>
+          <xdr:colOff>609600</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -4526,13 +4827,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>112939</xdr:colOff>
+          <xdr:colOff>114300</xdr:colOff>
           <xdr:row>26</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>612321</xdr:colOff>
+          <xdr:colOff>609600</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -4707,6 +5008,2507 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s15368"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="169333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>堺 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(C0101) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>　翌日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>79376</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>71967</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>238126</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>92075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16394" name="BarCodeCtrl1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16394"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="349250" y="169333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>堺 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0101) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　当日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>65618</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>214843</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16395" name="BarCodeCtrl2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16395"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6635750" y="169333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>堺 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0101) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　翌々出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>80433</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>239183</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16396" name="BarCodeCtrl3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16396"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="1185333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>堺 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(C0101) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>　翌日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>79376</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>71967</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>238126</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>92075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16397" name="BarCodeCtrl4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16397"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="349250" y="1185333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>堺 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0101) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　当日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>65618</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>214843</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16398" name="BarCodeCtrl5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16398"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6635750" y="1185333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>堺 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0101) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　翌々出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>80433</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>239183</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16399" name="BarCodeCtrl6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16399"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="テキスト ボックス 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="2201333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(C0105) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>　翌日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>79376</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>71967</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>238126</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>92075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16400" name="BarCodeCtrl7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16400"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="349250" y="2201333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0105) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　当日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>65618</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>214843</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16401" name="BarCodeCtrl8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16401"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6635750" y="2201333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0105) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　翌々出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>80433</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>239183</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16402" name="BarCodeCtrl9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16402"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="3217333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(C0105) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>　翌日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>79376</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>71967</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>238126</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>92075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16403" name="BarCodeCtrl10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16403"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="349250" y="3217333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0105) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　当日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>65618</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>214843</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16404" name="BarCodeCtrl11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16404"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6635750" y="3217333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0105) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　翌々出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>80433</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>239183</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16405" name="BarCodeCtrl12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16405"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="4233333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>堺 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(C0101) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>　翌日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>79376</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>71967</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>238126</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>92075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16406" name="BarCodeCtrl13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16406"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="349250" y="4233333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>堺 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0101) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　当日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>65618</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>214843</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16407" name="BarCodeCtrl14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16407"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6635750" y="4233333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>堺 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0101) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　翌々出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>80433</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>239183</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16408" name="BarCodeCtrl15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16408"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="テキスト ボックス 40"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="5249333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000"/>
+            <a:t>(C0105) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+            <a:t>　翌日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>79376</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>71967</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>238126</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>92075</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16409" name="BarCodeCtrl16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16409"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="349250" y="5249333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0105) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　当日出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>65618</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>214843</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16410" name="BarCodeCtrl17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16410"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6635750" y="5249333"/>
+          <a:ext cx="3143250" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0105) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　翌々出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>80433</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>78317</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>239183</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>97366</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16411" name="BarCodeCtrl18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16411"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -7463,8 +10265,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6">
+        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -7483,132 +10410,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1"/>
+        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -7743,43 +10545,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10247" r:id="rId4" name="BarCodeCtrl7">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId5">
+        <control shapeId="10250" r:id="rId4" name="BarCodeCtrl9">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M15" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10247" r:id="rId4" name="BarCodeCtrl7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10246" r:id="rId6" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -7788,23 +10565,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10246" r:id="rId6" name="BarCodeCtrl6"/>
+        <control shapeId="10250" r:id="rId4" name="BarCodeCtrl9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10245" r:id="rId8" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId9">
+        <control shapeId="10248" r:id="rId6" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M3" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -7813,24 +10590,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10245" r:id="rId8" name="BarCodeCtrl5"/>
+        <control shapeId="10248" r:id="rId6" name="BarCodeCtrl8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId10" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="A3" r:id="rId11">
+        <control shapeId="10244" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
+                <xdr:col>5</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -7838,7 +10615,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="10244" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="A14" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId10" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -7868,18 +10670,68 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId14" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="A14" r:id="rId15">
+        <control shapeId="10241" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="A3" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10241" r:id="rId14" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10245" r:id="rId16" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10245" r:id="rId16" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10246" r:id="rId18" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -7888,82 +10740,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10243" r:id="rId14" name="BarCodeCtrl3"/>
+        <control shapeId="10246" r:id="rId18" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10244" r:id="rId16" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId17">
+        <control shapeId="10247" r:id="rId20" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10244" r:id="rId16" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10248" r:id="rId18" name="BarCodeCtrl8">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M3" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10248" r:id="rId18" name="BarCodeCtrl8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10250" r:id="rId20" name="BarCodeCtrl9">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M15" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10250" r:id="rId20" name="BarCodeCtrl9"/>
+        <control shapeId="10247" r:id="rId20" name="BarCodeCtrl7"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8030,19 +10832,19 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="11265" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId5">
+        <control shapeId="11267" r:id="rId4" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
+                <xdr:row>22</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -8050,7 +10852,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="11265" r:id="rId4" name="BarCodeCtrl1"/>
+        <control shapeId="11267" r:id="rId4" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8080,7 +10882,167 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="11267" r:id="rId8" name="BarCodeCtrl3">
+        <control shapeId="11265" r:id="rId8" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="11265" r:id="rId8" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24">
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45532</v>
+      </c>
+      <c r="M3" s="5">
+        <v>45533</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="H4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="H13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="24">
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12289" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12289" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12290" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12290" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12291" r:id="rId8" name="BarCodeCtrl3">
           <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -8100,98 +11062,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="11267" r:id="rId8" name="BarCodeCtrl3"/>
+        <control shapeId="12291" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:O14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:15" ht="24">
-      <c r="A1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24">
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="5">
-        <v>45532</v>
-      </c>
-      <c r="M3" s="5">
-        <v>45533</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="H4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="H13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" ht="24">
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12292" r:id="rId4" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId5">
+        <control shapeId="12292" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -8210,82 +11087,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12292" r:id="rId4" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="12291" r:id="rId6" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12290" r:id="rId8" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="12290" r:id="rId8" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId10" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="12289" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="12292" r:id="rId10" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8368,8 +11170,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="13316" r:id="rId4" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId5">
+        <control shapeId="13313" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13313" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13314" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13314" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13315" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13315" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13316" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -8388,82 +11265,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="13316" r:id="rId4" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13315" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13315" r:id="rId6" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13314" r:id="rId8" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13314" r:id="rId8" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13313" r:id="rId10" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13313" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="13316" r:id="rId10" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8587,8 +11389,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="14337" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F3" r:id="rId5">
+        <control shapeId="14342" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B25" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14342" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14341" r:id="rId6" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F25" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14341" r:id="rId6" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14340" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14340" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14339" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F14" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14339" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14338" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B3" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14338" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14337" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F3" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -8607,132 +11534,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="14337" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="14338" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B3" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="14338" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="14339" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F14" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="14339" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="14340" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="14340" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="14341" r:id="rId12" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F25" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="14341" r:id="rId12" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="14342" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B25" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="14342" r:id="rId14" name="BarCodeCtrl6"/>
+        <control shapeId="14337" r:id="rId14" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8744,7 +11546,7 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -8918,8 +11720,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15367" r:id="rId4" name="BarCodeCtrl7">
+        <control shapeId="15368" r:id="rId4" name="BarCodeCtrl8">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15368" r:id="rId4" name="BarCodeCtrl8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15361" r:id="rId6" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F3" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15361" r:id="rId6" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15362" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B3" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15362" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15363" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F14" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15363" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15364" r:id="rId12" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15364" r:id="rId12" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15365" r:id="rId14" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F25" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>609600</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15365" r:id="rId14" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15366" r:id="rId16" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B25" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15366" r:id="rId16" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15367" r:id="rId18" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
@@ -8938,182 +11915,661 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15367" r:id="rId4" name="BarCodeCtrl7"/>
+        <control shapeId="15367" r:id="rId18" name="BarCodeCtrl7"/>
       </mc:Fallback>
     </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
+  <dimension ref="B2:AB7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="29" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+    </row>
+    <row r="4" spans="2:28">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+    </row>
+    <row r="5" spans="2:28">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+    </row>
+    <row r="6" spans="2:28">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+    </row>
+    <row r="7" spans="2:28">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:J7"/>
+    <mergeCell ref="K2:S7"/>
+    <mergeCell ref="T2:AB7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15366" r:id="rId6" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B25" r:id="rId7">
+        <control shapeId="16411" r:id="rId4" name="BarCodeCtrl18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15366" r:id="rId6" name="BarCodeCtrl6"/>
+        <control shapeId="16411" r:id="rId4" name="BarCodeCtrl18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId8" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F25" r:id="rId9">
+        <control shapeId="16410" r:id="rId6" name="BarCodeCtrl17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId8" name="BarCodeCtrl5"/>
+        <control shapeId="16410" r:id="rId6" name="BarCodeCtrl17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId11">
+        <control shapeId="16409" r:id="rId8" name="BarCodeCtrl16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId10" name="BarCodeCtrl4"/>
+        <control shapeId="16409" r:id="rId8" name="BarCodeCtrl16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15363" r:id="rId12" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F14" r:id="rId13">
+        <control shapeId="16408" r:id="rId10" name="BarCodeCtrl15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15363" r:id="rId12" name="BarCodeCtrl3"/>
+        <control shapeId="16408" r:id="rId10" name="BarCodeCtrl15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15362" r:id="rId14" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B3" r:id="rId15">
+        <control shapeId="16407" r:id="rId12" name="BarCodeCtrl14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15362" r:id="rId14" name="BarCodeCtrl2"/>
+        <control shapeId="16407" r:id="rId12" name="BarCodeCtrl14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15361" r:id="rId16" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F3" r:id="rId17">
+        <control shapeId="16406" r:id="rId14" name="BarCodeCtrl13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15361" r:id="rId16" name="BarCodeCtrl1"/>
+        <control shapeId="16406" r:id="rId14" name="BarCodeCtrl13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15368" r:id="rId18" name="BarCodeCtrl8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+        <control shapeId="16405" r:id="rId16" name="BarCodeCtrl12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15368" r:id="rId18" name="BarCodeCtrl8"/>
+        <control shapeId="16405" r:id="rId16" name="BarCodeCtrl12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16404" r:id="rId17" name="BarCodeCtrl11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16404" r:id="rId17" name="BarCodeCtrl11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16403" r:id="rId18" name="BarCodeCtrl10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16403" r:id="rId18" name="BarCodeCtrl10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16402" r:id="rId19" name="BarCodeCtrl9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16402" r:id="rId19" name="BarCodeCtrl9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16401" r:id="rId20" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16401" r:id="rId20" name="BarCodeCtrl8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16400" r:id="rId21" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16400" r:id="rId21" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16399" r:id="rId22" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16399" r:id="rId22" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16398" r:id="rId23" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16398" r:id="rId23" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16397" r:id="rId24" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16397" r:id="rId24" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16396" r:id="rId25" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16396" r:id="rId25" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16395" r:id="rId26" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16395" r:id="rId26" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16394" r:id="rId27" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16394" r:id="rId27" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9254,8 +12710,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6">
+        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
@@ -9274,132 +12855,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1"/>
+        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9469,8 +12925,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -9489,82 +13020,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5"/>
+        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9629,8 +13085,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -9649,82 +13180,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9825,8 +13281,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId5">
+        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -9845,132 +13426,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6"/>
+        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10072,8 +13528,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -10092,132 +13673,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5"/>
+        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10302,8 +13758,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -10322,82 +13853,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6"/>
+        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10533,8 +13989,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId5">
+        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
@@ -10553,182 +14184,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1"/>
+        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10848,8 +14304,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9220" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId5">
+        <control shapeId="9217" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9217" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9218" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9218" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9219" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H1" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9219" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9220" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -10868,82 +14399,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9220" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9219" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9219" r:id="rId6" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9218" r:id="rId8" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9218" r:id="rId8" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9217" r:id="rId10" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9217" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="9220" r:id="rId10" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/test/バーコードテストデータ.xlsx
+++ b/test/バーコードテストデータ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="ｵﾘｴﾝﾄ" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="v241003" sheetId="15" r:id="rId14"/>
     <sheet name="v241104" sheetId="16" r:id="rId15"/>
     <sheet name="v241104ラミネート" sheetId="17" r:id="rId16"/>
+    <sheet name="WPA2" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
   <si>
     <t>32A35-06401</t>
     <phoneticPr fontId="1"/>
@@ -768,6 +769,14 @@
     <t>RA168-62141</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>7D5D465DCD0380</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7d5d465dcd0380</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1186,11 +1195,11 @@
     <xf numFmtId="49" fontId="14" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1212,6 +1221,22 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
@@ -1220,23 +1245,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1252,7 +1261,71 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX101.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-1W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX102.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-1W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX103.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-1W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX104.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="7d5d465dcd0380"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1260,12 +1333,12 @@
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
@@ -1276,15 +1349,15 @@
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1292,10 +1365,42 @@
 
 <file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4780"/>
   <ax:ocxPr ax:name="_cy" ax:value="1600"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1306,12 +1411,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4780"/>
   <ax:ocxPr ax:name="_cy" ax:value="1600"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1322,7 +1427,39 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1332,34 +1469,34 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1370,7 +1507,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1380,71 +1517,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1455,7 +1528,55 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1466,39 +1587,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1508,23 +1597,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1540,7 +1613,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
+  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1556,7 +1629,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
+  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1572,7 +1645,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1580,15 +1653,15 @@
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1604,7 +1677,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1620,7 +1693,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
+  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1636,7 +1709,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1647,7 +1720,55 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1658,39 +1779,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1700,23 +1789,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T0180-12071"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
+  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1732,7 +1805,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
+  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1743,12 +1816,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1756,15 +1829,15 @@
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1780,7 +1853,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1796,7 +1869,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1807,12 +1880,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1828,7 +1901,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1839,12 +1912,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1855,7 +1928,55 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="84RD5586426170240148001                0000008     0000000                      20231026            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RD551-64261"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RC7949247114535793001                0000005     0000000            01010     20231026            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1866,7 +1987,23 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="0"/>
+  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1874,70 +2011,6 @@
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RC7949247114535793001                0000005     0000000            01010     20231026            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RD551-64261"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="84RD5586426170240148001                0000008     0000000                      20231026            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1G47036503"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
@@ -1956,7 +2029,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1G470-36503"/>
+  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1967,12 +2040,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
+  <ax:ocxPr ax:name="Value" ax:value="V0521-77721"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1988,7 +2061,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="106200-59801"/>
+  <ax:ocxPr ax:name="Value" ax:value="01350-63316"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1999,7 +2072,7 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -2020,7 +2093,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="01350-63316"/>
+  <ax:ocxPr ax:name="Value" ax:value="106200-59801"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2031,12 +2104,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V0521-77721"/>
+  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2052,7 +2125,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="Value" ax:value="1G470-36503"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2060,15 +2133,15 @@
 
 <file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="0"/>
-  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1G47036503"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2084,7 +2157,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="37410-75747"/>
+  <ax:ocxPr ax:name="Value" ax:value="V1311-62122"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2095,7 +2168,7 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -2107,6 +2180,182 @@
 </file>
 
 <file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="37410-75747"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="R1411-63311"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="R141163311"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="R1431-45911"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="R143145911"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ014435796V05316541120ZWAS0B450423114400010V05316541165100502019N192262024100904231144"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4780"/>
   <ax:ocxPr ax:name="_cy" ax:value="1600"/>
@@ -2122,182 +2371,6 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V1311-62122"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R141163311"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R1411-63311"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R143145911"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R1431-45911"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RD451-64082"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
@@ -2308,7 +2381,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RD4516408270251616001558-064 558-064 00000209B   0000020     -    -           20241009            "/>
+  <ax:ocxPr ax:name="Value" ax:value="V0531-65411"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2324,7 +2397,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RD158-63171"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RD1586317170242169002652-132 652-132 00000099B   0000009     -    -           20241009            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2340,7 +2413,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RD1586317170242169002652-132 652-132 00000099B   0000009     -    -           20241009            "/>
+  <ax:ocxPr ax:name="Value" ax:value="RD158-63171"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2356,7 +2429,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V0531-65411"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RD4516408270251616001558-064 558-064 00000209B   0000020     -    -           20241009            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2372,7 +2445,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ014435796V05316541120ZWAS0B450423114400010V05316541165100502019N192262024100904231144"/>
+  <ax:ocxPr ax:name="Value" ax:value="RD451-64082"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2380,15 +2453,15 @@
 
 <file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2396,10 +2469,106 @@
 
 <file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RC781-92331"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RC7889293187354981001        KAD-OMA 0000003MM   0000003RC781-9233-101010     20240807            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RA221-63121"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RA2216312187152609001009-014 009-014 00000159B   0000015     -    -           20240807            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RA168-62141"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -2410,113 +2579,17 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RA168-62141"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RA2216312187152609001009-014 009-014 00000159B   0000015     -    -           20240807            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RA221-63121"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RC7889293187354981001        KAD-OMA 0000003MM   0000003RC781-9233-101010     20240807            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RC781-92331"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2532,7 +2605,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2543,12 +2616,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="2381"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-Y"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2564,7 +2637,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2575,12 +2648,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="2408"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2607,12 +2680,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="2408"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2628,7 +2701,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2636,15 +2709,15 @@
 
 <file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2655,7 +2728,7 @@
   <ax:ocxPr ax:name="_cx" ax:value="2381"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -2676,7 +2749,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2692,7 +2765,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2703,7 +2776,7 @@
   <ax:ocxPr ax:name="_cx" ax:value="2381"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -2724,7 +2797,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2735,12 +2808,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="2408"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2767,12 +2840,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="2408"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2788,7 +2861,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2799,12 +2872,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="2381"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-Y"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -4613,7 +4686,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>638175</xdr:colOff>
+          <xdr:colOff>647700</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -4723,7 +4796,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -4833,7 +4906,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>33</xdr:row>
           <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
@@ -5051,13 +5124,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5129,15 +5202,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>79376</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>71967</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>238126</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>92075</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5183,13 +5256,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5270,15 +5343,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>65618</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>214843</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5324,13 +5397,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5413,15 +5486,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>80433</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>239183</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5467,13 +5540,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5545,15 +5618,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>79376</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>71967</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>238126</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>92075</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5599,13 +5672,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5686,15 +5759,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>65618</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>214843</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5740,13 +5813,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5829,15 +5902,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>80433</xdr:colOff>
-          <xdr:row>7</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>239183</xdr:colOff>
-          <xdr:row>12</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5883,13 +5956,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5961,15 +6034,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>79376</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>71967</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>238126</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>92075</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6015,13 +6088,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6102,15 +6175,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>65618</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>214843</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6156,13 +6229,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6245,15 +6318,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>80433</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>239183</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6299,13 +6372,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6377,15 +6450,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>79376</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>71967</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>238126</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>92075</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6431,13 +6504,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6518,15 +6591,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>65618</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>214843</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6572,13 +6645,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6661,15 +6734,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>80433</xdr:colOff>
-          <xdr:row>19</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>239183</xdr:colOff>
-          <xdr:row>24</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6715,13 +6788,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6793,15 +6866,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>79376</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>71967</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>238126</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>92075</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6847,13 +6920,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6934,15 +7007,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>65618</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>214843</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -6988,13 +7061,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7077,15 +7150,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>80433</xdr:colOff>
-          <xdr:row>25</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>239183</xdr:colOff>
-          <xdr:row>30</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7131,13 +7204,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7209,15 +7282,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>79376</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>71967</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>18</xdr:col>
-          <xdr:colOff>238126</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>92075</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7263,13 +7336,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7350,15 +7423,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>65618</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>66675</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>214843</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7404,13 +7477,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7493,15 +7566,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>25</xdr:col>
-          <xdr:colOff>80433</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>78317</xdr:rowOff>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>239183</xdr:colOff>
-          <xdr:row>36</xdr:row>
-          <xdr:rowOff>97366</xdr:rowOff>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7509,6 +7582,583 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s16411"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="349250" y="6286500"/>
+          <a:ext cx="3143250" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0105-1W) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>翌々々出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10477500"/>
+          <a:ext cx="0" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0105) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　翌々出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="テキスト ボックス 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="6286500"/>
+          <a:ext cx="3143250" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0105-1W) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>翌々々出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6635750" y="6286500"/>
+          <a:ext cx="3143250" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="360000" tIns="72000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>枚方 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(C0105-1W) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>翌々々出荷分</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16412" name="BarCodeCtrl19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16412"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>16</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>18</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16413" name="BarCodeCtrl20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16413"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>25</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>27</xdr:col>
+          <xdr:colOff>238125</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16414" name="BarCodeCtrl21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s16414"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>657225</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17409" name="BarCodeCtrl1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s17409"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -10265,8 +10915,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1">
+        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1030" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>504825</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1029" r:id="rId6" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1028" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1026" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -10285,132 +11060,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1025" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1027" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1028" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>504825</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1029" r:id="rId12" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1030" r:id="rId14" name="BarCodeCtrl6"/>
+        <control shapeId="1025" r:id="rId14" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10545,18 +11195,43 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10250" r:id="rId4" name="BarCodeCtrl9">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M15" r:id="rId5">
+        <control shapeId="10247" r:id="rId4" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10247" r:id="rId4" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10246" r:id="rId6" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
                 <xdr:row>15</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>22</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -10565,23 +11240,23 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10250" r:id="rId4" name="BarCodeCtrl9"/>
+        <control shapeId="10246" r:id="rId6" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10248" r:id="rId6" name="BarCodeCtrl8">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M3" r:id="rId7">
+        <control shapeId="10245" r:id="rId8" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -10590,24 +11265,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10248" r:id="rId6" name="BarCodeCtrl8"/>
+        <control shapeId="10245" r:id="rId8" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10244" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId9">
+        <control shapeId="10241" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="A3" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
+                <xdr:col>0</xdr:col>
                 <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
+                <xdr:row>4</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
@@ -10615,32 +11290,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10244" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="A14" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId10" name="BarCodeCtrl3"/>
+        <control shapeId="10241" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10670,18 +11320,68 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="A3" r:id="rId15">
+        <control shapeId="10243" r:id="rId14" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="A14" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
+                <xdr:row>15</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId14" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10244" r:id="rId16" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10244" r:id="rId16" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10248" r:id="rId18" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M3" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </to>
@@ -10690,13 +11390,100 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId14" name="BarCodeCtrl1"/>
+        <control shapeId="10248" r:id="rId18" name="BarCodeCtrl8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10245" r:id="rId16" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId17">
+        <control shapeId="10250" r:id="rId20" name="BarCodeCtrl9">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M15" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10250" r:id="rId20" name="BarCodeCtrl9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet11"/>
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="24">
+      <c r="D3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="H4" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="H13" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:11" ht="24">
+      <c r="H14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H13:J13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="11265" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -10715,144 +11502,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10245" r:id="rId16" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10246" r:id="rId18" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10246" r:id="rId18" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10247" r:id="rId20" name="BarCodeCtrl7">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H15" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>25</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10247" r:id="rId20" name="BarCodeCtrl7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="24">
-      <c r="A1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="24">
-      <c r="D3" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="H4" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="H13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-    </row>
-    <row r="14" spans="1:11" ht="24">
-      <c r="H14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H13:J13"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="11267" r:id="rId4" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="11267" r:id="rId4" name="BarCodeCtrl3"/>
+        <control shapeId="11265" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10882,167 +11532,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="11265" r:id="rId8" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="11265" r:id="rId8" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:O14"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:15" ht="24">
-      <c r="A1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24">
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="5">
-        <v>45532</v>
-      </c>
-      <c r="M3" s="5">
-        <v>45533</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="H4" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="H13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:15" ht="24">
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12289" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="12289" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12290" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="12290" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="12291" r:id="rId8" name="BarCodeCtrl3">
+        <control shapeId="11267" r:id="rId8" name="BarCodeCtrl3">
           <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -11062,13 +11552,98 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12291" r:id="rId8" name="BarCodeCtrl3"/>
+        <control shapeId="11267" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet12"/>
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="24">
+      <c r="A1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="24">
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="5">
+        <v>45532</v>
+      </c>
+      <c r="M3" s="5">
+        <v>45533</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="H4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="H13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:15" ht="24">
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="271" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="12292" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId11">
+        <control shapeId="12292" r:id="rId4" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -11087,7 +11662,82 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="12292" r:id="rId10" name="BarCodeCtrl4"/>
+        <control shapeId="12292" r:id="rId4" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12291" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12291" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12290" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12290" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="12289" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="12289" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11170,8 +11820,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="13313" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId5">
+        <control shapeId="13316" r:id="rId4" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13316" r:id="rId4" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13315" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13315" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13314" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="13314" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="13313" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H3" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -11190,82 +11915,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="13313" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13314" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D3" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13314" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13315" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13315" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="13316" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="D14" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="13316" r:id="rId10" name="BarCodeCtrl4"/>
+        <control shapeId="13313" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11389,8 +12039,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="14342" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B25" r:id="rId5">
+        <control shapeId="14337" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F3" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14337" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14338" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B3" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14338" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14339" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F14" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14339" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14340" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14340" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14341" r:id="rId12" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F25" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="14341" r:id="rId12" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="14342" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B25" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -11409,132 +12184,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="14342" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="14341" r:id="rId6" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F25" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="14341" r:id="rId6" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="14340" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="14340" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="14339" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F14" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="14339" r:id="rId10" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="14338" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B3" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="14338" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="14337" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F3" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="14337" r:id="rId14" name="BarCodeCtrl1"/>
+        <control shapeId="14342" r:id="rId14" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11720,8 +12370,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15368" r:id="rId4" name="BarCodeCtrl8">
+        <control shapeId="15367" r:id="rId4" name="BarCodeCtrl7">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15367" r:id="rId4" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15366" r:id="rId6" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B25" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15366" r:id="rId6" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15365" r:id="rId8" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F25" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15365" r:id="rId8" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15364" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15364" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15363" r:id="rId12" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F14" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15363" r:id="rId12" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15362" r:id="rId14" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B3" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15362" r:id="rId14" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15361" r:id="rId16" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F3" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="15361" r:id="rId16" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="15368" r:id="rId18" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
@@ -11740,182 +12565,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15368" r:id="rId4" name="BarCodeCtrl8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15361" r:id="rId6" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F3" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15361" r:id="rId6" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15362" r:id="rId8" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B3" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15362" r:id="rId8" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15363" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F14" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15363" r:id="rId10" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId12" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>22</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15364" r:id="rId12" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId14" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F25" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>609600</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15365" r:id="rId14" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15366" r:id="rId16" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B25" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>33</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15366" r:id="rId16" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="15367" r:id="rId18" name="BarCodeCtrl7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="15367" r:id="rId18" name="BarCodeCtrl7"/>
+        <control shapeId="15368" r:id="rId18" name="BarCodeCtrl8"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11925,10 +12575,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="B2:AB7"/>
+  <dimension ref="B1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11936,207 +12586,384 @@
     <col min="1" max="29" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:28">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+    </row>
     <row r="2" spans="2:28">
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
     </row>
     <row r="3" spans="2:28">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
     </row>
     <row r="4" spans="2:28">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
     </row>
     <row r="5" spans="2:28">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
     </row>
     <row r="6" spans="2:28">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
     </row>
-    <row r="7" spans="2:28">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="41"/>
-      <c r="Y7" s="41"/>
-      <c r="Z7" s="41"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="41"/>
+    <row r="37" spans="2:28">
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="42"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+    </row>
+    <row r="38" spans="2:28">
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="42"/>
+      <c r="Y38" s="42"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="42"/>
+      <c r="AB38" s="42"/>
+    </row>
+    <row r="39" spans="2:28">
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="42"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="42"/>
+      <c r="AB39" s="42"/>
+    </row>
+    <row r="40" spans="2:28">
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="42"/>
+      <c r="Y40" s="42"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="42"/>
+      <c r="AB40" s="42"/>
+    </row>
+    <row r="41" spans="2:28">
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="42"/>
+      <c r="Y41" s="42"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="42"/>
+      <c r="AB41" s="42"/>
+    </row>
+    <row r="42" spans="2:28">
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="42"/>
+      <c r="Y42" s="42"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="42"/>
+      <c r="AB42" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:J7"/>
-    <mergeCell ref="K2:S7"/>
-    <mergeCell ref="T2:AB7"/>
+  <mergeCells count="6">
+    <mergeCell ref="B1:J6"/>
+    <mergeCell ref="K1:S6"/>
+    <mergeCell ref="T1:AB6"/>
+    <mergeCell ref="B37:J42"/>
+    <mergeCell ref="K37:S42"/>
+    <mergeCell ref="T37:AB42"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.55118110236220474" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16411" r:id="rId4" name="BarCodeCtrl18">
+        <control shapeId="16394" r:id="rId4" name="BarCodeCtrl1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>25</xdr:col>
+                <xdr:col>16</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
+                <xdr:col>18</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12144,24 +12971,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16411" r:id="rId4" name="BarCodeCtrl18"/>
+        <control shapeId="16394" r:id="rId4" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16410" r:id="rId6" name="BarCodeCtrl17">
+        <control shapeId="16395" r:id="rId6" name="BarCodeCtrl2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12169,24 +12996,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16410" r:id="rId6" name="BarCodeCtrl17"/>
+        <control shapeId="16395" r:id="rId6" name="BarCodeCtrl2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16409" r:id="rId8" name="BarCodeCtrl16">
+        <control shapeId="16396" r:id="rId8" name="BarCodeCtrl3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
+                <xdr:col>25</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>31</xdr:row>
+                <xdr:row>0</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
+                <xdr:col>27</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>36</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12194,24 +13021,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16409" r:id="rId8" name="BarCodeCtrl16"/>
+        <control shapeId="16396" r:id="rId8" name="BarCodeCtrl3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16408" r:id="rId10" name="BarCodeCtrl15">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="16397" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>25</xdr:col>
+                <xdr:col>16</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
+                <xdr:col>18</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12219,24 +13046,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16408" r:id="rId10" name="BarCodeCtrl15"/>
+        <control shapeId="16397" r:id="rId10" name="BarCodeCtrl4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16407" r:id="rId12" name="BarCodeCtrl14">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="16398" r:id="rId11" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12244,24 +13071,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16407" r:id="rId12" name="BarCodeCtrl14"/>
+        <control shapeId="16398" r:id="rId11" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16406" r:id="rId14" name="BarCodeCtrl13">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="16399" r:id="rId12" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
+                <xdr:col>25</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
+                <xdr:col>27</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>30</xdr:row>
+                <xdr:row>11</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12269,24 +13096,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16406" r:id="rId14" name="BarCodeCtrl13"/>
+        <control shapeId="16399" r:id="rId12" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16405" r:id="rId16" name="BarCodeCtrl12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="16400" r:id="rId13" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>25</xdr:col>
+                <xdr:col>16</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
+                <xdr:col>18</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12294,24 +13121,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16405" r:id="rId16" name="BarCodeCtrl12"/>
+        <control shapeId="16400" r:id="rId13" name="BarCodeCtrl7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16404" r:id="rId17" name="BarCodeCtrl11">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="16401" r:id="rId15" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12319,24 +13146,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16404" r:id="rId17" name="BarCodeCtrl11"/>
+        <control shapeId="16401" r:id="rId15" name="BarCodeCtrl8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16403" r:id="rId18" name="BarCodeCtrl10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="16402" r:id="rId17" name="BarCodeCtrl9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
+                <xdr:col>25</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>19</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
+                <xdr:col>27</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>17</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12344,24 +13171,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16403" r:id="rId18" name="BarCodeCtrl10"/>
+        <control shapeId="16402" r:id="rId17" name="BarCodeCtrl9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16402" r:id="rId19" name="BarCodeCtrl9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="16403" r:id="rId19" name="BarCodeCtrl10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>25</xdr:col>
+                <xdr:col>16</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
+                <xdr:col>18</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12369,24 +13196,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16402" r:id="rId19" name="BarCodeCtrl9"/>
+        <control shapeId="16403" r:id="rId19" name="BarCodeCtrl10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16401" r:id="rId20" name="BarCodeCtrl8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+        <control shapeId="16404" r:id="rId20" name="BarCodeCtrl11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12394,24 +13221,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16401" r:id="rId20" name="BarCodeCtrl8"/>
+        <control shapeId="16404" r:id="rId20" name="BarCodeCtrl11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16400" r:id="rId21" name="BarCodeCtrl7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+        <control shapeId="16405" r:id="rId21" name="BarCodeCtrl12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
+                <xdr:col>25</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>18</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
+                <xdr:col>27</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>18</xdr:row>
+                <xdr:row>23</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12419,24 +13246,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16400" r:id="rId21" name="BarCodeCtrl7"/>
+        <control shapeId="16405" r:id="rId21" name="BarCodeCtrl12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16399" r:id="rId22" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="16406" r:id="rId22" name="BarCodeCtrl13">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>25</xdr:col>
+                <xdr:col>16</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
+                <xdr:col>18</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12444,24 +13271,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16399" r:id="rId22" name="BarCodeCtrl6"/>
+        <control shapeId="16406" r:id="rId22" name="BarCodeCtrl13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16398" r:id="rId23" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="16407" r:id="rId23" name="BarCodeCtrl14">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12469,24 +13296,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16398" r:id="rId23" name="BarCodeCtrl5"/>
+        <control shapeId="16407" r:id="rId23" name="BarCodeCtrl14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16397" r:id="rId24" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="16408" r:id="rId24" name="BarCodeCtrl15">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
+                <xdr:col>25</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>24</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
+                <xdr:col>27</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:row>29</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12494,24 +13321,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16397" r:id="rId24" name="BarCodeCtrl4"/>
+        <control shapeId="16408" r:id="rId24" name="BarCodeCtrl15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16396" r:id="rId25" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="16409" r:id="rId25" name="BarCodeCtrl16">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>25</xdr:col>
+                <xdr:col>16</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>27</xdr:col>
+                <xdr:col>18</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12519,24 +13346,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16396" r:id="rId25" name="BarCodeCtrl3"/>
+        <control shapeId="16409" r:id="rId25" name="BarCodeCtrl16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16395" r:id="rId26" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+        <control shapeId="16410" r:id="rId26" name="BarCodeCtrl17">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>219075</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12544,24 +13371,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16395" r:id="rId26" name="BarCodeCtrl2"/>
+        <control shapeId="16410" r:id="rId26" name="BarCodeCtrl17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16394" r:id="rId27" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+        <control shapeId="16411" r:id="rId27" name="BarCodeCtrl18">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
+                <xdr:col>25</xdr:col>
                 <xdr:colOff>76200</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>30</xdr:row>
                 <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>18</xdr:col>
+                <xdr:col>27</xdr:col>
                 <xdr:colOff>238125</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
@@ -12569,7 +13396,138 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16394" r:id="rId27" name="BarCodeCtrl1"/>
+        <control shapeId="16411" r:id="rId27" name="BarCodeCtrl18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16412" r:id="rId28" name="BarCodeCtrl19">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId29">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>228600</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16412" r:id="rId28" name="BarCodeCtrl19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16413" r:id="rId30" name="BarCodeCtrl20">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>18</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16413" r:id="rId30" name="BarCodeCtrl20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16414" r:id="rId32" name="BarCodeCtrl21">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId31">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>25</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>27</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16414" r:id="rId32" name="BarCodeCtrl21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet17"/>
+  <dimension ref="E3:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="5:5">
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="5:5">
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="17409" r:id="rId3" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="E3" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="17409" r:id="rId3" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12710,8 +13668,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1">
+        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>495300</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId6" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId10" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId12" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -12730,132 +13813,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="2049" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2050" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>27</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2051" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>476250</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2052" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>495300</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2053" r:id="rId12" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="2054" r:id="rId14" name="BarCodeCtrl6"/>
+        <control shapeId="2049" r:id="rId14" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12925,8 +13883,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
@@ -12945,82 +13978,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId4" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId6" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId8" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="3077" r:id="rId10" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13085,8 +14043,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4100" r:id="rId4" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4099" r:id="rId6" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="4098" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -13105,82 +14138,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4098" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>123825</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4099" r:id="rId8" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>19</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="4100" r:id="rId10" name="BarCodeCtrl5"/>
+        <control shapeId="4097" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13281,8 +14239,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId5">
+        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5121" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5122" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5123" r:id="rId8" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5124" r:id="rId10" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5125" r:id="rId12" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -13301,132 +14384,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5126" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5125" r:id="rId6" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="H12" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5124" r:id="rId8" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5123" r:id="rId10" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B14" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5122" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" linkedCell="B1" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5121" r:id="rId14" name="BarCodeCtrl1"/>
+        <control shapeId="5126" r:id="rId14" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13528,8 +14486,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId5">
+        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6145" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6146" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6149" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6150" r:id="rId10" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6151" r:id="rId12" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B22" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -13548,132 +14631,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6152" r:id="rId4" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="G1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6151" r:id="rId6" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B23" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6150" r:id="rId8" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6149" r:id="rId10" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6146" r:id="rId12" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6145" r:id="rId14" name="BarCodeCtrl1"/>
+        <control shapeId="6152" r:id="rId14" name="BarCodeCtrl5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13758,8 +14716,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId5">
+        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7169" r:id="rId4" name="BarCodeCtrl1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7170" r:id="rId6" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="7171" r:id="rId8" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="M12" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>12</xdr:col>
@@ -13778,82 +14811,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="7172" r:id="rId4" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="M1" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7171" r:id="rId6" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7170" r:id="rId8" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="7169" r:id="rId10" name="BarCodeCtrl1"/>
+        <control shapeId="7172" r:id="rId10" name="BarCodeCtrl6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -13989,8 +14947,183 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8201" r:id="rId4" name="BarCodeCtrl8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8200" r:id="rId6" name="BarCodeCtrl7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8198" r:id="rId8" name="BarCodeCtrl5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8197" r:id="rId10" name="BarCodeCtrl4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8196" r:id="rId12" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8195" r:id="rId14" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId17">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="8194" r:id="rId16" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -14009,182 +15142,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8194" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F1" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8195" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="F12" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8196" r:id="rId10" name="BarCodeCtrl6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J1" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8197" r:id="rId12" name="BarCodeCtrl4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="J12" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8198" r:id="rId14" name="BarCodeCtrl5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N1" r:id="rId17">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8200" r:id="rId16" name="BarCodeCtrl7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="N12" r:id="rId19">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="8201" r:id="rId18" name="BarCodeCtrl8"/>
+        <control shapeId="8193" r:id="rId18" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -14304,8 +15262,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="9217" r:id="rId4" name="BarCodeCtrl1">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId5">
+        <control shapeId="9220" r:id="rId4" name="BarCodeCtrl6">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9220" r:id="rId4" name="BarCodeCtrl6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9219" r:id="rId6" name="BarCodeCtrl3">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="H1" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9219" r:id="rId6" name="BarCodeCtrl3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9218" r:id="rId8" name="BarCodeCtrl2">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9218" r:id="rId8" name="BarCodeCtrl2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9217" r:id="rId10" name="BarCodeCtrl1">
+          <controlPr defaultSize="0" autoLine="0" linkedCell="B1" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -14324,82 +15357,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="9217" r:id="rId4" name="BarCodeCtrl1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9218" r:id="rId6" name="BarCodeCtrl2">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="B14" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9218" r:id="rId6" name="BarCodeCtrl2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9219" r:id="rId8" name="BarCodeCtrl3">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H1" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9219" r:id="rId8" name="BarCodeCtrl3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="9220" r:id="rId10" name="BarCodeCtrl6">
-          <controlPr defaultSize="0" autoLine="0" linkedCell="H14" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>21</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="9220" r:id="rId10" name="BarCodeCtrl6"/>
+        <control shapeId="9217" r:id="rId10" name="BarCodeCtrl1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/test/バーコードテストデータ.xlsx
+++ b/test/バーコードテストデータ.xlsx
@@ -27,8 +27,9 @@
     <sheet name="v240918" sheetId="14" r:id="rId13"/>
     <sheet name="v241003" sheetId="15" r:id="rId14"/>
     <sheet name="v241104" sheetId="16" r:id="rId15"/>
-    <sheet name="v241104ラミネート" sheetId="17" r:id="rId16"/>
-    <sheet name="WPA2" sheetId="18" r:id="rId17"/>
+    <sheet name="v241116" sheetId="19" r:id="rId16"/>
+    <sheet name="v241104ラミネート" sheetId="17" r:id="rId17"/>
+    <sheet name="WPA2" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
   <si>
     <t>32A35-06401</t>
     <phoneticPr fontId="1"/>
@@ -777,6 +778,58 @@
     <t>7d5d465dcd0380</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>v24.11.16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出荷指示システムバグ対応（DB更新時、得意先コードと納期を見ていない）</t>
+    <rPh sb="0" eb="2">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>トクイサキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ノウキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C0101-Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C0101-G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23T185570743</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1071,7 +1124,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1110,6 +1163,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,6 +1277,294 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX100.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX101.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX102.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX103.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX104.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX105.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX106.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX107.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX108.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX109.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX110.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX111.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX112.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX113.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX114.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="7d5d465dcd0380"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4780"/>
   <ax:ocxPr ax:name="_cy" ax:value="1600"/>
   <ax:ocxPr ax:name="Style" ax:value="7"/>
@@ -1235,7 +1579,295 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1251,422 +1883,6 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX100.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX101.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2434"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-1W"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX102.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-1W"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX103.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-1W"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX104.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="7d5d465dcd0380"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB411-68812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RB4196881270166046001                0000006MM   0000006RB411-6881-201010     20231002            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RB41168812"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TA0TA8118721+0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="8118721_0010-0010"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060951791J54017321R12ZWSA0A4501801379000101J5401732110080321237N192262023100301801379"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J500-17321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1J50017321"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="6C200-93121"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ0060581006C2229312150ZWEI0E4501789983000106C222931213090607509B192262023100401789983"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
@@ -1677,7 +1893,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="129J20-59580A"/>
+  <ax:ocxPr ax:name="Value" ax:value="129J20-59580-YR"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1693,7 +1909,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C131-62251-S"/>
+  <ax:ocxPr ax:name="Value" ax:value="28TD3503345382075706001325-ｶ-13W05-U-150000005ML   0000005                      20231002            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1709,7 +1925,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C13162251A000005"/>
+  <ax:ocxPr ax:name="Value" ax:value="TD350-33453-S"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1720,7 +1936,55 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1731,39 +1995,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="06Q72T018012071"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3S200-83782"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1773,23 +2005,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="Y6R243S20083782"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1805,7 +2021,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1816,12 +2032,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
+  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1829,15 +2045,15 @@
 
 <file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1853,7 +2069,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
+  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1869,7 +2085,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="TB1TB62J1712153A001"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C311-82741-1"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1880,12 +2096,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J171-21530"/>
+  <ax:ocxPr ax:name="Value" ax:value="3C31182742A000005"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1901,7 +2117,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122A001"/>
+  <ax:ocxPr ax:name="Value" ax:value="T4148-56142"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1912,12 +2128,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="62J1712122"/>
+  <ax:ocxPr ax:name="Value" ax:value="528T41485614283089797001940- -  940-X-130000005MM   0000005                      20231017            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -1928,7 +2144,55 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RC791-92471"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RC7949247114535793001                0000005     0000000            01010     20231026            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RD551-64261"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -1939,7 +2203,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -1949,45 +2213,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RD551-64261"/>
+  <ax:ocxPr ax:name="Value" ax:value="1G47036503"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RC7949247114535793001                0000005     0000000            01010     20231026            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RC791-92471"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="4780"/>
   <ax:ocxPr ax:name="_cy" ax:value="1600"/>
@@ -1995,22 +2227,6 @@
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="0"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="0"/>
-  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="A49A0D0101-0400"/>
@@ -2029,7 +2245,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="Value" ax:value="1G470-36503"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2040,12 +2256,12 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V0521-77721"/>
+  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2061,7 +2277,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="01350-63316"/>
+  <ax:ocxPr ax:name="Value" ax:value="106200-59801"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2072,7 +2288,7 @@
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -2093,13 +2309,173 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="106200-59801"/>
+  <ax:ocxPr ax:name="Value" ax:value="01350-63316"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V0521-77721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="0"/>
+  <ax:ocxPr ax:name="Value" ax:value="V052177721"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="37410-75747"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="01-07-02"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
+  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
+  <ax:ocxPr ax:name="Style" ax:value="7"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="V1311-62122"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="R141163311"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="R1411-63311"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -2115,7 +2491,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -2125,13 +2501,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1G470-36503"/>
+  <ax:ocxPr ax:name="Value" ax:value="R143145911"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -2141,13 +2517,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1G47036503"/>
+  <ax:ocxPr ax:name="Value" ax:value="R1431-45911"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -2157,61 +2533,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V1311-62122"/>
+  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="01-07-02"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="32A35-06401"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="37410-75747"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
@@ -2227,118 +2555,6 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R1411-63311"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R141163311"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="T185570743"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R1431-45911"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="R143145911"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
@@ -2349,7 +2565,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ014435796V05316541120ZWAS0B450423114400010V05316541165100502019N192262024100904231144"/>
+  <ax:ocxPr ax:name="Value" ax:value="RD451-64082"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2357,15 +2573,15 @@
 
 <file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2381,7 +2597,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="V0531-65411"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RD4516408270251616001558-064 558-064 00000209B   0000020     -    -           20241009            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2397,7 +2613,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RD1586317170242169002652-132 652-132 00000099B   0000009     -    -           20241009            "/>
+  <ax:ocxPr ax:name="Value" ax:value="RD158-63171"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2413,7 +2629,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RD158-63171"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RD1586317170242169002652-132 652-132 00000099B   0000009     -    -           20241009            "/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2429,7 +2645,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RD4516408270251616001558-064 558-064 00000209B   0000020     -    -           20241009            "/>
+  <ax:ocxPr ax:name="Value" ax:value="V0531-65411"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2445,7 +2661,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RD451-64082"/>
+  <ax:ocxPr ax:name="Value" ax:value="KQR_TagZ014435796V05316541120ZWAS0B450423114400010V05316541165100502019N192262024100904231144"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -2453,10 +2669,138 @@
 
 <file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RA1686214186970829001703-611 703-611 0000005PT37 0000005     -    -           20240805            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RA168-62141"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RA2216312187152609001009-014 009-014 00000159B   0000015     -    -           20240807            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RA221-63121"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="3300"/>
   <ax:ocxPr ax:name="_cy" ax:value="3300"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23RC7889293187354981001        KAD-OMA 0000003MM   0000003RC781-9233-101010     20240807            "/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="RC781-92331"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
@@ -2467,138 +2811,10 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RC781-92331"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RC7889293187354981001        KAD-OMA 0000003MM   0000003RC781-9233-101010     20240807            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RA221-63121"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RA2216312187152609001009-014 009-014 00000159B   0000015     -    -           20240807            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-1L"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="RA168-62141"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="23RA1686214186970829001703-611 703-611 0000005PT37 0000005     -    -           20240805            "/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
-  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -2613,8 +2829,40 @@
 
 <file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
   <ax:ocxPr ax:name="Style" ax:value="11"/>
   <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
   <ax:ocxPr ax:name="Validation" ax:value="2"/>
@@ -2627,7 +2875,119 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="2"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="2"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3300"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3300"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="AM33200181-0401"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="1"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="T1855-70743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="3307"/>
+  <ax:ocxPr ax:name="_cy" ax:value="3307"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="23T185570743"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="2408"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
@@ -2637,13 +2997,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-1W"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="2408"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
@@ -2653,13 +3013,45 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-1W"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2434"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-1W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
+  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
+  <ax:ocxPr ax:name="Style" ax:value="11"/>
+  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
+  <ax:ocxPr ax:name="Validation" ax:value="2"/>
+  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
+  <ax:ocxPr ax:name="Direction" ax:value="0"/>
+  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
+  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
+  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="2381"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
@@ -2669,29 +3061,13 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-Y"/>
+  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="2408"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
@@ -2707,39 +3083,7 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="4780"/>
-  <ax:ocxPr ax:name="_cy" ax:value="1600"/>
-  <ax:ocxPr ax:name="Style" ax:value="7"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="0"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="0"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="1A8411-49100-12"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX90.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX99.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="_cx" ax:value="2408"/>
   <ax:ocxPr ax:name="_cy" ax:value="2434"/>
@@ -2749,135 +3093,7 @@
   <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
   <ax:ocxPr ax:name="Direction" ax:value="0"/>
   <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX92.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX93.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX94.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-W"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX95.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-G"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX96.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0101-Y"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX97.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
   <ax:ocxPr ax:name="Value" ax:value="C0101-W"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX98.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2408"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="0"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-G"/>
-  <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
-  <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX99.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D9347033-9612-11D1-9D75-00C04FCC8CDC}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="_cx" ax:value="2381"/>
-  <ax:ocxPr ax:name="_cy" ax:value="2434"/>
-  <ax:ocxPr ax:name="Style" ax:value="11"/>
-  <ax:ocxPr ax:name="SubStyle" ax:value="-1"/>
-  <ax:ocxPr ax:name="Validation" ax:value="2"/>
-  <ax:ocxPr ax:name="LineWeight" ax:value="1"/>
-  <ax:ocxPr ax:name="Direction" ax:value="0"/>
-  <ax:ocxPr ax:name="ShowData" ax:value="1"/>
-  <ax:ocxPr ax:name="Value" ax:value="C0105-Y"/>
   <ax:ocxPr ax:name="ForeColor" ax:value="0"/>
   <ax:ocxPr ax:name="BackColor" ax:value="16777215"/>
 </ax:ocx>
@@ -5119,6 +5335,561 @@
 </file>
 
 <file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>79375</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>584200</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18433" name="BarCodeCtrl1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s18433"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18434" name="BarCodeCtrl2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s18434"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>82550</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>587375</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18435" name="BarCodeCtrl3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s18435"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18436" name="BarCodeCtrl4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s18436"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18437" name="BarCodeCtrl5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s18437"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>180975</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18438" name="BarCodeCtrl6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s18438"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Ch